--- a/Indicadore_Censo_escolar_2024.xlsx
+++ b/Indicadore_Censo_escolar_2024.xlsx
@@ -1,20 +1,406 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28928"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{24247398-8A67-4470-A522-885D8A6E5D24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Indicadores" sheetId="1" r:id="rId1"/>
+    <sheet name="Dicionário" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="121">
+  <si>
+    <t>NO_MUNICIPIO</t>
+  </si>
+  <si>
+    <t>Estadual</t>
+  </si>
+  <si>
+    <t>Federal</t>
+  </si>
+  <si>
+    <t>Municipal</t>
+  </si>
+  <si>
+    <t>Privada</t>
+  </si>
+  <si>
+    <t>Total_Escolas</t>
+  </si>
+  <si>
+    <t>Prop_EPu</t>
+  </si>
+  <si>
+    <t>Prop_Epr</t>
+  </si>
+  <si>
+    <t>Com_Internet</t>
+  </si>
+  <si>
+    <t>Prop_Internet</t>
+  </si>
+  <si>
+    <t>Com_Ac</t>
+  </si>
+  <si>
+    <t>Prop_Ac</t>
+  </si>
+  <si>
+    <t>Com_Esg</t>
+  </si>
+  <si>
+    <t>Prop_Esg</t>
+  </si>
+  <si>
+    <t>Angra dos Reis</t>
+  </si>
+  <si>
+    <t>Aperibé</t>
+  </si>
+  <si>
+    <t>Araruama</t>
+  </si>
+  <si>
+    <t>Areal</t>
+  </si>
+  <si>
+    <t>Armação dos Búzios</t>
+  </si>
+  <si>
+    <t>Arraial do Cabo</t>
+  </si>
+  <si>
+    <t>Barra Mansa</t>
+  </si>
+  <si>
+    <t>Barra do Piraí</t>
+  </si>
+  <si>
+    <t>Belford Roxo</t>
+  </si>
+  <si>
+    <t>Bom Jardim</t>
+  </si>
+  <si>
+    <t>Bom Jesus do Itabapoana</t>
+  </si>
+  <si>
+    <t>Cabo Frio</t>
+  </si>
+  <si>
+    <t>Cachoeiras de Macacu</t>
+  </si>
+  <si>
+    <t>Cambuci</t>
+  </si>
+  <si>
+    <t>Campos dos Goytacazes</t>
+  </si>
+  <si>
+    <t>Cantagalo</t>
+  </si>
+  <si>
+    <t>Carapebus</t>
+  </si>
+  <si>
+    <t>Cardoso Moreira</t>
+  </si>
+  <si>
+    <t>Carmo</t>
+  </si>
+  <si>
+    <t>Casimiro de Abreu</t>
+  </si>
+  <si>
+    <t>Comendador Levy Gasparian</t>
+  </si>
+  <si>
+    <t>Conceição de Macabu</t>
+  </si>
+  <si>
+    <t>Cordeiro</t>
+  </si>
+  <si>
+    <t>Duas Barras</t>
+  </si>
+  <si>
+    <t>Duque de Caxias</t>
+  </si>
+  <si>
+    <t>Engenheiro Paulo de Frontin</t>
+  </si>
+  <si>
+    <t>Guapimirim</t>
+  </si>
+  <si>
+    <t>Iguaba Grande</t>
+  </si>
+  <si>
+    <t>Itaboraí</t>
+  </si>
+  <si>
+    <t>Itaguaí</t>
+  </si>
+  <si>
+    <t>Italva</t>
+  </si>
+  <si>
+    <t>Itaocara</t>
+  </si>
+  <si>
+    <t>Itaperuna</t>
+  </si>
+  <si>
+    <t>Itatiaia</t>
+  </si>
+  <si>
+    <t>Japeri</t>
+  </si>
+  <si>
+    <t>Laje do Muriaé</t>
+  </si>
+  <si>
+    <t>Macaé</t>
+  </si>
+  <si>
+    <t>Macuco</t>
+  </si>
+  <si>
+    <t>Magé</t>
+  </si>
+  <si>
+    <t>Mangaratiba</t>
+  </si>
+  <si>
+    <t>Maricá</t>
+  </si>
+  <si>
+    <t>Mendes</t>
+  </si>
+  <si>
+    <t>Mesquita</t>
+  </si>
+  <si>
+    <t>Miguel Pereira</t>
+  </si>
+  <si>
+    <t>Miracema</t>
+  </si>
+  <si>
+    <t>Natividade</t>
+  </si>
+  <si>
+    <t>Nilópolis</t>
+  </si>
+  <si>
+    <t>Niterói</t>
+  </si>
+  <si>
+    <t>Nova Friburgo</t>
+  </si>
+  <si>
+    <t>Nova Iguaçu</t>
+  </si>
+  <si>
+    <t>Paracambi</t>
+  </si>
+  <si>
+    <t>Paraty</t>
+  </si>
+  <si>
+    <t>Paraíba do Sul</t>
+  </si>
+  <si>
+    <t>Paty do Alferes</t>
+  </si>
+  <si>
+    <t>Petrópolis</t>
+  </si>
+  <si>
+    <t>Pinheiral</t>
+  </si>
+  <si>
+    <t>Piraí</t>
+  </si>
+  <si>
+    <t>Porciúncula</t>
+  </si>
+  <si>
+    <t>Porto Real</t>
+  </si>
+  <si>
+    <t>Quatis</t>
+  </si>
+  <si>
+    <t>Queimados</t>
+  </si>
+  <si>
+    <t>Quissamã</t>
+  </si>
+  <si>
+    <t>Resende</t>
+  </si>
+  <si>
+    <t>Rio Bonito</t>
+  </si>
+  <si>
+    <t>Rio Claro</t>
+  </si>
+  <si>
+    <t>Rio das Flores</t>
+  </si>
+  <si>
+    <t>Rio das Ostras</t>
+  </si>
+  <si>
+    <t>Rio de Janeiro</t>
+  </si>
+  <si>
+    <t>Santa Maria Madalena</t>
+  </si>
+  <si>
+    <t>Santo Antônio de Pádua</t>
+  </si>
+  <si>
+    <t>Sapucaia</t>
+  </si>
+  <si>
+    <t>Saquarema</t>
+  </si>
+  <si>
+    <t>Seropédica</t>
+  </si>
+  <si>
+    <t>Silva Jardim</t>
+  </si>
+  <si>
+    <t>Sumidouro</t>
+  </si>
+  <si>
+    <t>São Fidélis</t>
+  </si>
+  <si>
+    <t>São Francisco de Itabapoana</t>
+  </si>
+  <si>
+    <t>São Gonçalo</t>
+  </si>
+  <si>
+    <t>São José de Ubá</t>
+  </si>
+  <si>
+    <t>São José do Vale do Rio Preto</t>
+  </si>
+  <si>
+    <t>São João da Barra</t>
+  </si>
+  <si>
+    <t>São João de Meriti</t>
+  </si>
+  <si>
+    <t>São Pedro da Aldeia</t>
+  </si>
+  <si>
+    <t>São Sebastião do Alto</t>
+  </si>
+  <si>
+    <t>Tanguá</t>
+  </si>
+  <si>
+    <t>Teresópolis</t>
+  </si>
+  <si>
+    <t>Trajano de Moraes</t>
+  </si>
+  <si>
+    <t>Três Rios</t>
+  </si>
+  <si>
+    <t>Valença</t>
+  </si>
+  <si>
+    <t>Varre-Sai</t>
+  </si>
+  <si>
+    <t>Vassouras</t>
+  </si>
+  <si>
+    <t>Volta Redonda</t>
+  </si>
+  <si>
+    <t>Nome do Município</t>
+  </si>
+  <si>
+    <t>Nº de escolas Estaduais</t>
+  </si>
+  <si>
+    <t>Nº de escolas Federais</t>
+  </si>
+  <si>
+    <t>Nº de escolas Municipais</t>
+  </si>
+  <si>
+    <t>Nº de escolas Privadas</t>
+  </si>
+  <si>
+    <t>Total_Escolas.x</t>
+  </si>
+  <si>
+    <t>Total de Escolas</t>
+  </si>
+  <si>
+    <t>Proporção de escolas Públicas</t>
+  </si>
+  <si>
+    <t>Proporção de escolas Particulares</t>
+  </si>
+  <si>
+    <t>Total de escolas municipais com acesso a internet</t>
+  </si>
+  <si>
+    <t>Proporção de escolas municipais com acesso a internet</t>
+  </si>
+  <si>
+    <t>Total de escolas com pelo menos um tipo de acessibilidade</t>
+  </si>
+  <si>
+    <t>Proporção de escolas com pelo menos um tipo de acessibilidade</t>
+  </si>
+  <si>
+    <t>Total de escola com esgoto</t>
+  </si>
+  <si>
+    <t>Proporção de escolas com esgoto</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -52,10 +438,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -63,13 +453,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -107,7 +505,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -141,6 +539,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -175,9 +574,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -350,105 +750,73 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q93"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:M1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>NO_MUNICIPIO</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Estadual</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Federal</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Municipal</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Privada</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Total_Escolas.x</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Prop_EPu</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Prop_Epr</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Total_Escolas.y</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Com_Internet</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Prop_Internet</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Total_escola.x</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Com_Ac</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Prop_Ac</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Total_escola.y</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Com_Esg</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Prop_Esg</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Angra dos Reis</t>
-        </is>
+    <row r="1" spans="1:14" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" t="s">
+        <v>14</v>
       </c>
       <c r="B2">
         <v>14</v>
@@ -465,45 +833,34 @@
       <c r="F2">
         <v>159</v>
       </c>
-      <c r="G2">
-        <v>67.9245283018868</v>
-      </c>
-      <c r="H2">
-        <v>47.22222222222222</v>
+      <c r="G2" s="2">
+        <v>67.924528301886795</v>
+      </c>
+      <c r="H2" s="2">
+        <v>47.222222222222221</v>
       </c>
       <c r="I2">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="J2">
-        <v>85</v>
+        <v>92.39</v>
       </c>
       <c r="K2">
-        <v>92.39</v>
+        <v>124</v>
       </c>
       <c r="L2">
-        <v>159</v>
+        <v>77.989999999999995</v>
       </c>
       <c r="M2">
-        <v>124</v>
+        <v>155</v>
       </c>
       <c r="N2">
-        <v>77.98999999999999</v>
-      </c>
-      <c r="O2">
-        <v>159</v>
-      </c>
-      <c r="P2">
-        <v>155</v>
-      </c>
-      <c r="Q2">
         <v>97.48</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Aperibé</t>
-        </is>
+    <row r="3" spans="1:14">
+      <c r="A3" t="s">
+        <v>15</v>
       </c>
       <c r="B3">
         <v>4</v>
@@ -520,23 +877,23 @@
       <c r="F3">
         <v>23</v>
       </c>
-      <c r="G3">
-        <v>82.60869565217391</v>
-      </c>
-      <c r="H3">
+      <c r="G3" s="2">
+        <v>82.608695652173907</v>
+      </c>
+      <c r="H3" s="2">
         <v>21.05263157894737</v>
       </c>
       <c r="I3">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="J3">
-        <v>8</v>
+        <v>53.33</v>
       </c>
       <c r="K3">
-        <v>53.33</v>
+        <v>13</v>
       </c>
       <c r="L3">
-        <v>23</v>
+        <v>56.52</v>
       </c>
       <c r="M3">
         <v>13</v>
@@ -544,21 +901,10 @@
       <c r="N3">
         <v>56.52</v>
       </c>
-      <c r="O3">
-        <v>23</v>
-      </c>
-      <c r="P3">
-        <v>13</v>
-      </c>
-      <c r="Q3">
-        <v>56.52</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Araruama</t>
-        </is>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" t="s">
+        <v>16</v>
       </c>
       <c r="B4">
         <v>10</v>
@@ -575,45 +921,34 @@
       <c r="F4">
         <v>186</v>
       </c>
-      <c r="G4">
-        <v>86.02150537634408</v>
-      </c>
-      <c r="H4">
+      <c r="G4" s="2">
+        <v>86.021505376344081</v>
+      </c>
+      <c r="H4" s="2">
         <v>16.25</v>
       </c>
       <c r="I4">
-        <v>150</v>
+        <v>53</v>
       </c>
       <c r="J4">
-        <v>53</v>
+        <v>35.33</v>
       </c>
       <c r="K4">
-        <v>35.33</v>
+        <v>69</v>
       </c>
       <c r="L4">
-        <v>186</v>
+        <v>37.1</v>
       </c>
       <c r="M4">
-        <v>69</v>
+        <v>137</v>
       </c>
       <c r="N4">
-        <v>37.1</v>
-      </c>
-      <c r="O4">
-        <v>186</v>
-      </c>
-      <c r="P4">
-        <v>137</v>
-      </c>
-      <c r="Q4">
         <v>73.66</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Areal</t>
-        </is>
+    <row r="5" spans="1:14">
+      <c r="A5" t="s">
+        <v>17</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -630,45 +965,34 @@
       <c r="F5">
         <v>20</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="2">
         <v>95</v>
       </c>
-      <c r="H5">
-        <v>5.263157894736842</v>
+      <c r="H5" s="2">
+        <v>5.2631578947368416</v>
       </c>
       <c r="I5">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J5">
-        <v>13</v>
+        <v>76.47</v>
       </c>
       <c r="K5">
-        <v>76.47</v>
+        <v>14</v>
       </c>
       <c r="L5">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="M5">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N5">
-        <v>70</v>
-      </c>
-      <c r="O5">
-        <v>20</v>
-      </c>
-      <c r="P5">
-        <v>16</v>
-      </c>
-      <c r="Q5">
         <v>80</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Armação dos Búzios</t>
-        </is>
+    <row r="6" spans="1:14">
+      <c r="A6" t="s">
+        <v>18</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -685,45 +1009,34 @@
       <c r="F6">
         <v>38</v>
       </c>
-      <c r="G6">
-        <v>81.57894736842105</v>
-      </c>
-      <c r="H6">
+      <c r="G6" s="2">
+        <v>81.578947368421055</v>
+      </c>
+      <c r="H6" s="2">
         <v>22.58064516129032</v>
       </c>
       <c r="I6">
         <v>29</v>
       </c>
       <c r="J6">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="K6">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="L6">
-        <v>38</v>
+        <v>92.11</v>
       </c>
       <c r="M6">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N6">
-        <v>92.11</v>
-      </c>
-      <c r="O6">
-        <v>38</v>
-      </c>
-      <c r="P6">
-        <v>37</v>
-      </c>
-      <c r="Q6">
         <v>97.37</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Arraial do Cabo</t>
-        </is>
+    <row r="7" spans="1:14">
+      <c r="A7" t="s">
+        <v>19</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -740,45 +1053,34 @@
       <c r="F7">
         <v>24</v>
       </c>
-      <c r="G7">
-        <v>79.16666666666666</v>
-      </c>
-      <c r="H7">
-        <v>26.31578947368421</v>
+      <c r="G7" s="2">
+        <v>79.166666666666657</v>
+      </c>
+      <c r="H7" s="2">
+        <v>26.315789473684209</v>
       </c>
       <c r="I7">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J7">
-        <v>13</v>
+        <v>86.67</v>
       </c>
       <c r="K7">
-        <v>86.67</v>
+        <v>16</v>
       </c>
       <c r="L7">
-        <v>24</v>
+        <v>66.67</v>
       </c>
       <c r="M7">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N7">
-        <v>66.67</v>
-      </c>
-      <c r="O7">
-        <v>24</v>
-      </c>
-      <c r="P7">
-        <v>22</v>
-      </c>
-      <c r="Q7">
         <v>91.67</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Barra Mansa</t>
-        </is>
+    <row r="8" spans="1:14">
+      <c r="A8" t="s">
+        <v>20</v>
       </c>
       <c r="B8">
         <v>18</v>
@@ -795,45 +1097,34 @@
       <c r="F8">
         <v>115</v>
       </c>
-      <c r="G8">
-        <v>72.17391304347827</v>
-      </c>
-      <c r="H8">
-        <v>38.55421686746988</v>
+      <c r="G8" s="2">
+        <v>72.173913043478265</v>
+      </c>
+      <c r="H8" s="2">
+        <v>38.554216867469883</v>
       </c>
       <c r="I8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J8">
-        <v>64</v>
+        <v>98.46</v>
       </c>
       <c r="K8">
-        <v>98.45999999999999</v>
+        <v>98</v>
       </c>
       <c r="L8">
-        <v>115</v>
+        <v>85.22</v>
       </c>
       <c r="M8">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="N8">
-        <v>85.22</v>
-      </c>
-      <c r="O8">
-        <v>115</v>
-      </c>
-      <c r="P8">
-        <v>111</v>
-      </c>
-      <c r="Q8">
         <v>96.52</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Barra do Piraí</t>
-        </is>
+    <row r="9" spans="1:14">
+      <c r="A9" t="s">
+        <v>21</v>
       </c>
       <c r="B9">
         <v>13</v>
@@ -850,45 +1141,34 @@
       <c r="F9">
         <v>79</v>
       </c>
-      <c r="G9">
-        <v>65.82278481012658</v>
-      </c>
-      <c r="H9">
-        <v>51.92307692307693</v>
+      <c r="G9" s="2">
+        <v>65.822784810126578</v>
+      </c>
+      <c r="H9" s="2">
+        <v>51.923076923076927</v>
       </c>
       <c r="I9">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J9">
-        <v>35</v>
+        <v>89.74</v>
       </c>
       <c r="K9">
-        <v>89.73999999999999</v>
+        <v>67</v>
       </c>
       <c r="L9">
-        <v>79</v>
+        <v>84.81</v>
       </c>
       <c r="M9">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="N9">
-        <v>84.81</v>
-      </c>
-      <c r="O9">
-        <v>79</v>
-      </c>
-      <c r="P9">
-        <v>70</v>
-      </c>
-      <c r="Q9">
         <v>88.61</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Belford Roxo</t>
-        </is>
+    <row r="10" spans="1:14">
+      <c r="A10" t="s">
+        <v>22</v>
       </c>
       <c r="B10">
         <v>43</v>
@@ -905,45 +1185,34 @@
       <c r="F10">
         <v>291</v>
       </c>
-      <c r="G10">
-        <v>53.60824742268041</v>
-      </c>
-      <c r="H10">
-        <v>86.53846153846155</v>
+      <c r="G10" s="2">
+        <v>53.608247422680407</v>
+      </c>
+      <c r="H10" s="2">
+        <v>86.538461538461547</v>
       </c>
       <c r="I10">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="J10">
-        <v>98</v>
+        <v>87.5</v>
       </c>
       <c r="K10">
-        <v>87.5</v>
+        <v>254</v>
       </c>
       <c r="L10">
-        <v>291</v>
+        <v>87.29</v>
       </c>
       <c r="M10">
-        <v>254</v>
+        <v>277</v>
       </c>
       <c r="N10">
-        <v>87.29000000000001</v>
-      </c>
-      <c r="O10">
-        <v>291</v>
-      </c>
-      <c r="P10">
-        <v>277</v>
-      </c>
-      <c r="Q10">
         <v>95.19</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Bom Jardim</t>
-        </is>
+    <row r="11" spans="1:14">
+      <c r="A11" t="s">
+        <v>23</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -960,45 +1229,34 @@
       <c r="F11">
         <v>46</v>
       </c>
-      <c r="G11">
-        <v>86.95652173913044</v>
-      </c>
-      <c r="H11">
+      <c r="G11" s="2">
+        <v>86.956521739130437</v>
+      </c>
+      <c r="H11" s="2">
         <v>15</v>
       </c>
       <c r="I11">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="J11">
-        <v>17</v>
+        <v>56.67</v>
       </c>
       <c r="K11">
-        <v>56.67</v>
+        <v>20</v>
       </c>
       <c r="L11">
-        <v>46</v>
+        <v>43.48</v>
       </c>
       <c r="M11">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="N11">
-        <v>43.48</v>
-      </c>
-      <c r="O11">
-        <v>46</v>
-      </c>
-      <c r="P11">
-        <v>26</v>
-      </c>
-      <c r="Q11">
         <v>56.52</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Bom Jesus do Itabapoana</t>
-        </is>
+    <row r="12" spans="1:14">
+      <c r="A12" t="s">
+        <v>24</v>
       </c>
       <c r="B12">
         <v>8</v>
@@ -1015,45 +1273,34 @@
       <c r="F12">
         <v>84</v>
       </c>
-      <c r="G12">
-        <v>89.28571428571429</v>
-      </c>
-      <c r="H12">
+      <c r="G12" s="2">
+        <v>89.285714285714292</v>
+      </c>
+      <c r="H12" s="2">
         <v>12</v>
       </c>
       <c r="I12">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="J12">
-        <v>30</v>
+        <v>45.45</v>
       </c>
       <c r="K12">
-        <v>45.45</v>
+        <v>40</v>
       </c>
       <c r="L12">
-        <v>84</v>
+        <v>47.62</v>
       </c>
       <c r="M12">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="N12">
-        <v>47.62</v>
-      </c>
-      <c r="O12">
-        <v>84</v>
-      </c>
-      <c r="P12">
-        <v>51</v>
-      </c>
-      <c r="Q12">
         <v>60.71</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Cabo Frio</t>
-        </is>
+    <row r="13" spans="1:14">
+      <c r="A13" t="s">
+        <v>25</v>
       </c>
       <c r="B13">
         <v>11</v>
@@ -1070,45 +1317,34 @@
       <c r="F13">
         <v>171</v>
       </c>
-      <c r="G13">
-        <v>60.81871345029239</v>
-      </c>
-      <c r="H13">
-        <v>64.42307692307693</v>
+      <c r="G13" s="2">
+        <v>60.818713450292393</v>
+      </c>
+      <c r="H13" s="2">
+        <v>64.423076923076934</v>
       </c>
       <c r="I13">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J13">
-        <v>89</v>
+        <v>97.8</v>
       </c>
       <c r="K13">
-        <v>97.8</v>
+        <v>135</v>
       </c>
       <c r="L13">
-        <v>171</v>
+        <v>78.95</v>
       </c>
       <c r="M13">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c r="N13">
-        <v>78.95</v>
-      </c>
-      <c r="O13">
-        <v>171</v>
-      </c>
-      <c r="P13">
-        <v>156</v>
-      </c>
-      <c r="Q13">
         <v>91.23</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Cachoeiras de Macacu</t>
-        </is>
+    <row r="14" spans="1:14">
+      <c r="A14" t="s">
+        <v>26</v>
       </c>
       <c r="B14">
         <v>12</v>
@@ -1125,45 +1361,34 @@
       <c r="F14">
         <v>80</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="2">
         <v>82.5</v>
       </c>
-      <c r="H14">
-        <v>21.21212121212121</v>
+      <c r="H14" s="2">
+        <v>21.212121212121211</v>
       </c>
       <c r="I14">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="J14">
-        <v>31</v>
+        <v>57.41</v>
       </c>
       <c r="K14">
-        <v>57.41</v>
+        <v>39</v>
       </c>
       <c r="L14">
-        <v>80</v>
+        <v>48.75</v>
       </c>
       <c r="M14">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="N14">
-        <v>48.75</v>
-      </c>
-      <c r="O14">
-        <v>80</v>
-      </c>
-      <c r="P14">
-        <v>55</v>
-      </c>
-      <c r="Q14">
         <v>68.75</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Cambuci</t>
-        </is>
+    <row r="15" spans="1:14">
+      <c r="A15" t="s">
+        <v>27</v>
       </c>
       <c r="B15">
         <v>5</v>
@@ -1180,45 +1405,34 @@
       <c r="F15">
         <v>33</v>
       </c>
-      <c r="G15">
-        <v>87.87878787878788</v>
-      </c>
-      <c r="H15">
-        <v>13.79310344827586</v>
+      <c r="G15" s="2">
+        <v>87.878787878787875</v>
+      </c>
+      <c r="H15" s="2">
+        <v>13.793103448275859</v>
       </c>
       <c r="I15">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="J15">
-        <v>13</v>
+        <v>56.52</v>
       </c>
       <c r="K15">
-        <v>56.52</v>
+        <v>19</v>
       </c>
       <c r="L15">
-        <v>33</v>
+        <v>57.58</v>
       </c>
       <c r="M15">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N15">
-        <v>57.58</v>
-      </c>
-      <c r="O15">
-        <v>33</v>
-      </c>
-      <c r="P15">
-        <v>20</v>
-      </c>
-      <c r="Q15">
         <v>60.61</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Campos dos Goytacazes</t>
-        </is>
+    <row r="16" spans="1:14">
+      <c r="A16" t="s">
+        <v>28</v>
       </c>
       <c r="B16">
         <v>58</v>
@@ -1235,45 +1449,34 @@
       <c r="F16">
         <v>490</v>
       </c>
-      <c r="G16">
-        <v>69.38775510204081</v>
-      </c>
-      <c r="H16">
-        <v>44.11764705882353</v>
+      <c r="G16" s="2">
+        <v>69.387755102040813</v>
+      </c>
+      <c r="H16" s="2">
+        <v>44.117647058823529</v>
       </c>
       <c r="I16">
-        <v>279</v>
+        <v>231</v>
       </c>
       <c r="J16">
-        <v>231</v>
+        <v>82.8</v>
       </c>
       <c r="K16">
-        <v>82.8</v>
+        <v>293</v>
       </c>
       <c r="L16">
-        <v>490</v>
+        <v>59.8</v>
       </c>
       <c r="M16">
-        <v>293</v>
+        <v>427</v>
       </c>
       <c r="N16">
-        <v>59.8</v>
-      </c>
-      <c r="O16">
-        <v>490</v>
-      </c>
-      <c r="P16">
-        <v>427</v>
-      </c>
-      <c r="Q16">
         <v>87.14</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Cantagalo</t>
-        </is>
+    <row r="17" spans="1:14">
+      <c r="A17" t="s">
+        <v>29</v>
       </c>
       <c r="B17">
         <v>11</v>
@@ -1290,45 +1493,34 @@
       <c r="F17">
         <v>44</v>
       </c>
-      <c r="G17">
-        <v>93.18181818181817</v>
-      </c>
-      <c r="H17">
-        <v>7.317073170731707</v>
+      <c r="G17" s="2">
+        <v>93.181818181818173</v>
+      </c>
+      <c r="H17" s="2">
+        <v>7.3170731707317067</v>
       </c>
       <c r="I17">
+        <v>10</v>
+      </c>
+      <c r="J17">
+        <v>33.33</v>
+      </c>
+      <c r="K17">
+        <v>16</v>
+      </c>
+      <c r="L17">
+        <v>36.36</v>
+      </c>
+      <c r="M17">
+        <v>17</v>
+      </c>
+      <c r="N17">
+        <v>38.64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" t="s">
         <v>30</v>
-      </c>
-      <c r="J17">
-        <v>10</v>
-      </c>
-      <c r="K17">
-        <v>33.33</v>
-      </c>
-      <c r="L17">
-        <v>44</v>
-      </c>
-      <c r="M17">
-        <v>16</v>
-      </c>
-      <c r="N17">
-        <v>36.36</v>
-      </c>
-      <c r="O17">
-        <v>44</v>
-      </c>
-      <c r="P17">
-        <v>17</v>
-      </c>
-      <c r="Q17">
-        <v>38.64</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Carapebus</t>
-        </is>
       </c>
       <c r="B18">
         <v>1</v>
@@ -1345,45 +1537,34 @@
       <c r="F18">
         <v>22</v>
       </c>
-      <c r="G18">
-        <v>90.90909090909091</v>
-      </c>
-      <c r="H18">
+      <c r="G18" s="2">
+        <v>90.909090909090907</v>
+      </c>
+      <c r="H18" s="2">
         <v>10</v>
       </c>
       <c r="I18">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="J18">
-        <v>12</v>
+        <v>63.16</v>
       </c>
       <c r="K18">
-        <v>63.16</v>
+        <v>11</v>
       </c>
       <c r="L18">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="M18">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="N18">
-        <v>50</v>
-      </c>
-      <c r="O18">
-        <v>22</v>
-      </c>
-      <c r="P18">
-        <v>18</v>
-      </c>
-      <c r="Q18">
-        <v>81.81999999999999</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Cardoso Moreira</t>
-        </is>
+        <v>81.819999999999993</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" t="s">
+        <v>31</v>
       </c>
       <c r="B19">
         <v>2</v>
@@ -1400,45 +1581,34 @@
       <c r="F19">
         <v>27</v>
       </c>
-      <c r="G19">
-        <v>92.5925925925926</v>
-      </c>
-      <c r="H19">
+      <c r="G19" s="2">
+        <v>92.592592592592595</v>
+      </c>
+      <c r="H19" s="2">
         <v>8</v>
       </c>
       <c r="I19">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="J19">
-        <v>12</v>
+        <v>52.17</v>
       </c>
       <c r="K19">
-        <v>52.17</v>
+        <v>11</v>
       </c>
       <c r="L19">
-        <v>27</v>
+        <v>40.74</v>
       </c>
       <c r="M19">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="N19">
-        <v>40.74</v>
-      </c>
-      <c r="O19">
-        <v>27</v>
-      </c>
-      <c r="P19">
-        <v>15</v>
-      </c>
-      <c r="Q19">
         <v>55.56</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Carmo</t>
-        </is>
+    <row r="20" spans="1:14">
+      <c r="A20" t="s">
+        <v>32</v>
       </c>
       <c r="B20">
         <v>8</v>
@@ -1455,45 +1625,34 @@
       <c r="F20">
         <v>28</v>
       </c>
-      <c r="G20">
-        <v>89.28571428571429</v>
-      </c>
-      <c r="H20">
+      <c r="G20" s="2">
+        <v>89.285714285714292</v>
+      </c>
+      <c r="H20" s="2">
         <v>12</v>
       </c>
       <c r="I20">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J20">
-        <v>15</v>
+        <v>88.24</v>
       </c>
       <c r="K20">
-        <v>88.23999999999999</v>
+        <v>21</v>
       </c>
       <c r="L20">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="M20">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="N20">
-        <v>75</v>
-      </c>
-      <c r="O20">
-        <v>28</v>
-      </c>
-      <c r="P20">
-        <v>24</v>
-      </c>
-      <c r="Q20">
-        <v>85.70999999999999</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Casimiro de Abreu</t>
-        </is>
+        <v>85.71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" t="s">
+        <v>33</v>
       </c>
       <c r="B21">
         <v>7</v>
@@ -1510,45 +1669,34 @@
       <c r="F21">
         <v>54</v>
       </c>
-      <c r="G21">
-        <v>87.03703703703704</v>
-      </c>
-      <c r="H21">
-        <v>14.8936170212766</v>
+      <c r="G21" s="2">
+        <v>87.037037037037038</v>
+      </c>
+      <c r="H21" s="2">
+        <v>14.893617021276601</v>
       </c>
       <c r="I21">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="J21">
-        <v>29</v>
+        <v>72.5</v>
       </c>
       <c r="K21">
-        <v>72.5</v>
+        <v>38</v>
       </c>
       <c r="L21">
-        <v>54</v>
+        <v>70.37</v>
       </c>
       <c r="M21">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="N21">
-        <v>70.37</v>
-      </c>
-      <c r="O21">
-        <v>54</v>
-      </c>
-      <c r="P21">
-        <v>41</v>
-      </c>
-      <c r="Q21">
-        <v>75.93000000000001</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Comendador Levy Gasparian</t>
-        </is>
+        <v>75.930000000000007</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" t="s">
+        <v>34</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -1565,45 +1713,34 @@
       <c r="F22">
         <v>10</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="2">
         <v>90</v>
       </c>
-      <c r="H22">
-        <v>11.11111111111111</v>
+      <c r="H22" s="2">
+        <v>11.111111111111111</v>
       </c>
       <c r="I22">
+        <v>7</v>
+      </c>
+      <c r="J22">
+        <v>87.5</v>
+      </c>
+      <c r="K22">
         <v>8</v>
       </c>
-      <c r="J22">
-        <v>7</v>
-      </c>
-      <c r="K22">
-        <v>87.5</v>
-      </c>
       <c r="L22">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="M22">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N22">
-        <v>80</v>
-      </c>
-      <c r="O22">
-        <v>10</v>
-      </c>
-      <c r="P22">
-        <v>9</v>
-      </c>
-      <c r="Q22">
         <v>90</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Conceição de Macabu</t>
-        </is>
+    <row r="23" spans="1:14">
+      <c r="A23" t="s">
+        <v>35</v>
       </c>
       <c r="B23">
         <v>6</v>
@@ -1620,45 +1757,34 @@
       <c r="F23">
         <v>33</v>
       </c>
-      <c r="G23">
-        <v>78.78787878787878</v>
-      </c>
-      <c r="H23">
+      <c r="G23" s="2">
+        <v>78.787878787878782</v>
+      </c>
+      <c r="H23" s="2">
         <v>26.92307692307692</v>
       </c>
       <c r="I23">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J23">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="K23">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="L23">
-        <v>33</v>
+        <v>66.67</v>
       </c>
       <c r="M23">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="N23">
-        <v>66.67</v>
-      </c>
-      <c r="O23">
-        <v>33</v>
-      </c>
-      <c r="P23">
-        <v>29</v>
-      </c>
-      <c r="Q23">
         <v>87.88</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Cordeiro</t>
-        </is>
+    <row r="24" spans="1:14">
+      <c r="A24" t="s">
+        <v>36</v>
       </c>
       <c r="B24">
         <v>6</v>
@@ -1675,45 +1801,34 @@
       <c r="F24">
         <v>25</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="2">
         <v>72</v>
       </c>
-      <c r="H24">
-        <v>38.88888888888889</v>
+      <c r="H24" s="2">
+        <v>38.888888888888893</v>
       </c>
       <c r="I24">
         <v>12</v>
       </c>
       <c r="J24">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="K24">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="L24">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="M24">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="N24">
-        <v>84</v>
-      </c>
-      <c r="O24">
-        <v>25</v>
-      </c>
-      <c r="P24">
-        <v>24</v>
-      </c>
-      <c r="Q24">
         <v>96</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Duas Barras</t>
-        </is>
+    <row r="25" spans="1:14">
+      <c r="A25" t="s">
+        <v>37</v>
       </c>
       <c r="B25">
         <v>13</v>
@@ -1730,45 +1845,34 @@
       <c r="F25">
         <v>36</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="2">
         <v>100</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="2">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="J25">
-        <v>11</v>
+        <v>47.83</v>
       </c>
       <c r="K25">
-        <v>47.83</v>
+        <v>14</v>
       </c>
       <c r="L25">
-        <v>36</v>
+        <v>38.89</v>
       </c>
       <c r="M25">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N25">
-        <v>38.89</v>
-      </c>
-      <c r="O25">
-        <v>36</v>
-      </c>
-      <c r="P25">
-        <v>15</v>
-      </c>
-      <c r="Q25">
         <v>41.67</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Duque de Caxias</t>
-        </is>
+    <row r="26" spans="1:14">
+      <c r="A26" t="s">
+        <v>38</v>
       </c>
       <c r="B26">
         <v>92</v>
@@ -1785,45 +1889,34 @@
       <c r="F26">
         <v>603</v>
       </c>
-      <c r="G26">
-        <v>47.2636815920398</v>
-      </c>
-      <c r="H26">
+      <c r="G26" s="2">
+        <v>47.263681592039802</v>
+      </c>
+      <c r="H26" s="2">
         <v>111.578947368421</v>
       </c>
       <c r="I26">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="J26">
-        <v>188</v>
+        <v>98.43</v>
       </c>
       <c r="K26">
-        <v>98.43000000000001</v>
+        <v>516</v>
       </c>
       <c r="L26">
-        <v>603</v>
+        <v>85.57</v>
       </c>
       <c r="M26">
-        <v>516</v>
+        <v>576</v>
       </c>
       <c r="N26">
-        <v>85.56999999999999</v>
-      </c>
-      <c r="O26">
-        <v>603</v>
-      </c>
-      <c r="P26">
-        <v>576</v>
-      </c>
-      <c r="Q26">
         <v>95.52</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Engenheiro Paulo de Frontin</t>
-        </is>
+    <row r="27" spans="1:14">
+      <c r="A27" t="s">
+        <v>39</v>
       </c>
       <c r="B27">
         <v>2</v>
@@ -1840,45 +1933,34 @@
       <c r="F27">
         <v>16</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="2">
         <v>93.75</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="2">
         <v>6.666666666666667</v>
       </c>
       <c r="I27">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J27">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="K27">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="L27">
-        <v>16</v>
+        <v>62.5</v>
       </c>
       <c r="M27">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="N27">
-        <v>62.5</v>
-      </c>
-      <c r="O27">
-        <v>16</v>
-      </c>
-      <c r="P27">
-        <v>13</v>
-      </c>
-      <c r="Q27">
         <v>81.25</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Guapimirim</t>
-        </is>
+    <row r="28" spans="1:14">
+      <c r="A28" t="s">
+        <v>40</v>
       </c>
       <c r="B28">
         <v>3</v>
@@ -1895,45 +1977,34 @@
       <c r="F28">
         <v>47</v>
       </c>
-      <c r="G28">
-        <v>82.97872340425532</v>
-      </c>
-      <c r="H28">
-        <v>20.51282051282051</v>
+      <c r="G28" s="2">
+        <v>82.978723404255319</v>
+      </c>
+      <c r="H28" s="2">
+        <v>20.512820512820511</v>
       </c>
       <c r="I28">
         <v>36</v>
       </c>
       <c r="J28">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="K28">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="L28">
-        <v>47</v>
+        <v>68.09</v>
       </c>
       <c r="M28">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="N28">
-        <v>68.09</v>
-      </c>
-      <c r="O28">
-        <v>47</v>
-      </c>
-      <c r="P28">
-        <v>46</v>
-      </c>
-      <c r="Q28">
         <v>97.87</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Iguaba Grande</t>
-        </is>
+    <row r="29" spans="1:14">
+      <c r="A29" t="s">
+        <v>41</v>
       </c>
       <c r="B29">
         <v>2</v>
@@ -1950,45 +2021,34 @@
       <c r="F29">
         <v>23</v>
       </c>
-      <c r="G29">
-        <v>78.26086956521739</v>
-      </c>
-      <c r="H29">
-        <v>27.77777777777778</v>
+      <c r="G29" s="2">
+        <v>78.260869565217391</v>
+      </c>
+      <c r="H29" s="2">
+        <v>27.777777777777779</v>
       </c>
       <c r="I29">
         <v>16</v>
       </c>
       <c r="J29">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="K29">
+        <v>19</v>
+      </c>
+      <c r="L29">
+        <v>82.61</v>
+      </c>
+      <c r="M29">
+        <v>23</v>
+      </c>
+      <c r="N29">
         <v>100</v>
       </c>
-      <c r="L29">
-        <v>23</v>
-      </c>
-      <c r="M29">
-        <v>19</v>
-      </c>
-      <c r="N29">
-        <v>82.61</v>
-      </c>
-      <c r="O29">
-        <v>23</v>
-      </c>
-      <c r="P29">
-        <v>23</v>
-      </c>
-      <c r="Q29">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Itaboraí</t>
-        </is>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" t="s">
+        <v>42</v>
       </c>
       <c r="B30">
         <v>18</v>
@@ -2005,45 +2065,34 @@
       <c r="F30">
         <v>198</v>
       </c>
-      <c r="G30">
-        <v>63.63636363636363</v>
-      </c>
-      <c r="H30">
-        <v>57.14285714285714</v>
+      <c r="G30" s="2">
+        <v>63.636363636363633</v>
+      </c>
+      <c r="H30" s="2">
+        <v>57.142857142857139</v>
       </c>
       <c r="I30">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="J30">
-        <v>96</v>
+        <v>89.72</v>
       </c>
       <c r="K30">
-        <v>89.72</v>
+        <v>146</v>
       </c>
       <c r="L30">
-        <v>198</v>
+        <v>73.739999999999995</v>
       </c>
       <c r="M30">
-        <v>146</v>
+        <v>170</v>
       </c>
       <c r="N30">
-        <v>73.73999999999999</v>
-      </c>
-      <c r="O30">
-        <v>198</v>
-      </c>
-      <c r="P30">
-        <v>170</v>
-      </c>
-      <c r="Q30">
         <v>85.86</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Itaguaí</t>
-        </is>
+    <row r="31" spans="1:14">
+      <c r="A31" t="s">
+        <v>43</v>
       </c>
       <c r="B31">
         <v>11</v>
@@ -2060,45 +2109,34 @@
       <c r="F31">
         <v>118</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="2">
         <v>70.33898305084746</v>
       </c>
-      <c r="H31">
-        <v>42.16867469879519</v>
+      <c r="H31" s="2">
+        <v>42.168674698795193</v>
       </c>
       <c r="I31">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="J31">
-        <v>62</v>
+        <v>88.57</v>
       </c>
       <c r="K31">
-        <v>88.56999999999999</v>
+        <v>106</v>
       </c>
       <c r="L31">
-        <v>118</v>
+        <v>89.83</v>
       </c>
       <c r="M31">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="N31">
-        <v>89.83</v>
-      </c>
-      <c r="O31">
-        <v>118</v>
-      </c>
-      <c r="P31">
-        <v>110</v>
-      </c>
-      <c r="Q31">
         <v>93.22</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Italva</t>
-        </is>
+    <row r="32" spans="1:14">
+      <c r="A32" t="s">
+        <v>44</v>
       </c>
       <c r="B32">
         <v>3</v>
@@ -2115,45 +2153,34 @@
       <c r="F32">
         <v>13</v>
       </c>
-      <c r="G32">
-        <v>84.61538461538461</v>
-      </c>
-      <c r="H32">
+      <c r="G32" s="2">
+        <v>84.615384615384613</v>
+      </c>
+      <c r="H32" s="2">
         <v>18.18181818181818</v>
       </c>
       <c r="I32">
         <v>8</v>
       </c>
       <c r="J32">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="K32">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="L32">
-        <v>13</v>
+        <v>76.92</v>
       </c>
       <c r="M32">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N32">
-        <v>76.92</v>
-      </c>
-      <c r="O32">
-        <v>13</v>
-      </c>
-      <c r="P32">
-        <v>11</v>
-      </c>
-      <c r="Q32">
         <v>84.62</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Itaocara</t>
-        </is>
+    <row r="33" spans="1:14">
+      <c r="A33" t="s">
+        <v>45</v>
       </c>
       <c r="B33">
         <v>8</v>
@@ -2170,45 +2197,34 @@
       <c r="F33">
         <v>55</v>
       </c>
-      <c r="G33">
-        <v>89.09090909090909</v>
-      </c>
-      <c r="H33">
-        <v>12.24489795918367</v>
+      <c r="G33" s="2">
+        <v>89.090909090909093</v>
+      </c>
+      <c r="H33" s="2">
+        <v>12.244897959183669</v>
       </c>
       <c r="I33">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="J33">
-        <v>15</v>
+        <v>36.590000000000003</v>
       </c>
       <c r="K33">
-        <v>36.59</v>
+        <v>22</v>
       </c>
       <c r="L33">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="M33">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="N33">
-        <v>40</v>
-      </c>
-      <c r="O33">
-        <v>55</v>
-      </c>
-      <c r="P33">
-        <v>25</v>
-      </c>
-      <c r="Q33">
         <v>45.45</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Itaperuna</t>
-        </is>
+    <row r="34" spans="1:14">
+      <c r="A34" t="s">
+        <v>46</v>
       </c>
       <c r="B34">
         <v>19</v>
@@ -2225,45 +2241,34 @@
       <c r="F34">
         <v>111</v>
       </c>
-      <c r="G34">
-        <v>62.16216216216216</v>
-      </c>
-      <c r="H34">
-        <v>60.86956521739131</v>
+      <c r="G34" s="2">
+        <v>62.162162162162161</v>
+      </c>
+      <c r="H34" s="2">
+        <v>60.869565217391312</v>
       </c>
       <c r="I34">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="J34">
-        <v>35</v>
+        <v>71.430000000000007</v>
       </c>
       <c r="K34">
-        <v>71.43000000000001</v>
+        <v>76</v>
       </c>
       <c r="L34">
-        <v>111</v>
+        <v>68.47</v>
       </c>
       <c r="M34">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="N34">
-        <v>68.47</v>
-      </c>
-      <c r="O34">
-        <v>111</v>
-      </c>
-      <c r="P34">
-        <v>87</v>
-      </c>
-      <c r="Q34">
         <v>78.38</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Itatiaia</t>
-        </is>
+    <row r="35" spans="1:14">
+      <c r="A35" t="s">
+        <v>47</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -2280,45 +2285,34 @@
       <c r="F35">
         <v>32</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="2">
         <v>81.25</v>
       </c>
-      <c r="H35">
+      <c r="H35" s="2">
         <v>23.07692307692308</v>
       </c>
       <c r="I35">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J35">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="K35">
-        <v>96</v>
+        <v>29</v>
       </c>
       <c r="L35">
-        <v>32</v>
+        <v>90.62</v>
       </c>
       <c r="M35">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="N35">
-        <v>90.62</v>
-      </c>
-      <c r="O35">
-        <v>32</v>
-      </c>
-      <c r="P35">
-        <v>31</v>
-      </c>
-      <c r="Q35">
         <v>96.88</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Japeri</t>
-        </is>
+    <row r="36" spans="1:14">
+      <c r="A36" t="s">
+        <v>48</v>
       </c>
       <c r="B36">
         <v>10</v>
@@ -2335,45 +2329,34 @@
       <c r="F36">
         <v>65</v>
       </c>
-      <c r="G36">
-        <v>70.76923076923077</v>
-      </c>
-      <c r="H36">
-        <v>41.30434782608695</v>
+      <c r="G36" s="2">
+        <v>70.769230769230774</v>
+      </c>
+      <c r="H36" s="2">
+        <v>41.304347826086953</v>
       </c>
       <c r="I36">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J36">
-        <v>33</v>
+        <v>91.67</v>
       </c>
       <c r="K36">
-        <v>91.67</v>
+        <v>52</v>
       </c>
       <c r="L36">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="M36">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="N36">
-        <v>80</v>
-      </c>
-      <c r="O36">
-        <v>65</v>
-      </c>
-      <c r="P36">
-        <v>60</v>
-      </c>
-      <c r="Q36">
         <v>92.31</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Laje do Muriaé</t>
-        </is>
+    <row r="37" spans="1:14">
+      <c r="A37" t="s">
+        <v>49</v>
       </c>
       <c r="B37">
         <v>6</v>
@@ -2390,45 +2373,34 @@
       <c r="F37">
         <v>25</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="2">
         <v>88</v>
       </c>
-      <c r="H37">
+      <c r="H37" s="2">
         <v>13.63636363636363</v>
       </c>
       <c r="I37">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="J37">
-        <v>6</v>
+        <v>37.5</v>
       </c>
       <c r="K37">
-        <v>37.5</v>
+        <v>8</v>
       </c>
       <c r="L37">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="M37">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N37">
-        <v>32</v>
-      </c>
-      <c r="O37">
-        <v>25</v>
-      </c>
-      <c r="P37">
-        <v>9</v>
-      </c>
-      <c r="Q37">
         <v>36</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Macaé</t>
-        </is>
+    <row r="38" spans="1:14">
+      <c r="A38" t="s">
+        <v>50</v>
       </c>
       <c r="B38">
         <v>13</v>
@@ -2445,45 +2417,34 @@
       <c r="F38">
         <v>242</v>
       </c>
-      <c r="G38">
-        <v>66.52892561983471</v>
-      </c>
-      <c r="H38">
-        <v>50.31055900621118</v>
+      <c r="G38" s="2">
+        <v>66.528925619834709</v>
+      </c>
+      <c r="H38" s="2">
+        <v>50.310559006211179</v>
       </c>
       <c r="I38">
-        <v>147</v>
+        <v>111</v>
       </c>
       <c r="J38">
-        <v>111</v>
+        <v>75.510000000000005</v>
       </c>
       <c r="K38">
-        <v>75.51000000000001</v>
+        <v>173</v>
       </c>
       <c r="L38">
-        <v>242</v>
+        <v>71.489999999999995</v>
       </c>
       <c r="M38">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="N38">
-        <v>71.48999999999999</v>
-      </c>
-      <c r="O38">
-        <v>242</v>
-      </c>
-      <c r="P38">
-        <v>198</v>
-      </c>
-      <c r="Q38">
-        <v>81.81999999999999</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Macuco</t>
-        </is>
+        <v>81.819999999999993</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="A39" t="s">
+        <v>51</v>
       </c>
       <c r="B39">
         <v>4</v>
@@ -2500,23 +2461,23 @@
       <c r="F39">
         <v>14</v>
       </c>
-      <c r="G39">
-        <v>85.71428571428571</v>
-      </c>
-      <c r="H39">
-        <v>16.66666666666666</v>
+      <c r="G39" s="2">
+        <v>85.714285714285708</v>
+      </c>
+      <c r="H39" s="2">
+        <v>16.666666666666661</v>
       </c>
       <c r="I39">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J39">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="K39">
+        <v>7</v>
+      </c>
+      <c r="L39">
         <v>50</v>
-      </c>
-      <c r="L39">
-        <v>14</v>
       </c>
       <c r="M39">
         <v>7</v>
@@ -2524,21 +2485,10 @@
       <c r="N39">
         <v>50</v>
       </c>
-      <c r="O39">
-        <v>14</v>
-      </c>
-      <c r="P39">
-        <v>7</v>
-      </c>
-      <c r="Q39">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Magé</t>
-        </is>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="A40" t="s">
+        <v>52</v>
       </c>
       <c r="B40">
         <v>21</v>
@@ -2555,45 +2505,34 @@
       <c r="F40">
         <v>187</v>
       </c>
-      <c r="G40">
-        <v>72.72727272727273</v>
-      </c>
-      <c r="H40">
+      <c r="G40" s="2">
+        <v>72.727272727272734</v>
+      </c>
+      <c r="H40" s="2">
         <v>37.5</v>
       </c>
       <c r="I40">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="J40">
-        <v>111</v>
+        <v>96.52</v>
       </c>
       <c r="K40">
-        <v>96.52</v>
+        <v>143</v>
       </c>
       <c r="L40">
-        <v>187</v>
+        <v>76.47</v>
       </c>
       <c r="M40">
-        <v>143</v>
+        <v>172</v>
       </c>
       <c r="N40">
-        <v>76.47</v>
-      </c>
-      <c r="O40">
-        <v>187</v>
-      </c>
-      <c r="P40">
-        <v>172</v>
-      </c>
-      <c r="Q40">
         <v>91.98</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Mangaratiba</t>
-        </is>
+    <row r="41" spans="1:14">
+      <c r="A41" t="s">
+        <v>53</v>
       </c>
       <c r="B41">
         <v>4</v>
@@ -2610,45 +2549,34 @@
       <c r="F41">
         <v>56</v>
       </c>
-      <c r="G41">
-        <v>83.92857142857143</v>
-      </c>
-      <c r="H41">
-        <v>19.14893617021277</v>
+      <c r="G41" s="2">
+        <v>83.928571428571431</v>
+      </c>
+      <c r="H41" s="2">
+        <v>19.148936170212771</v>
       </c>
       <c r="I41">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J41">
-        <v>40</v>
+        <v>93.02</v>
       </c>
       <c r="K41">
-        <v>93.02</v>
+        <v>44</v>
       </c>
       <c r="L41">
-        <v>56</v>
+        <v>78.569999999999993</v>
       </c>
       <c r="M41">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="N41">
-        <v>78.56999999999999</v>
-      </c>
-      <c r="O41">
-        <v>56</v>
-      </c>
-      <c r="P41">
-        <v>55</v>
-      </c>
-      <c r="Q41">
-        <v>98.20999999999999</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Maricá</t>
-        </is>
+        <v>98.21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
+      <c r="A42" t="s">
+        <v>54</v>
       </c>
       <c r="B42">
         <v>10</v>
@@ -2665,45 +2593,34 @@
       <c r="F42">
         <v>125</v>
       </c>
-      <c r="G42">
-        <v>70.39999999999999</v>
-      </c>
-      <c r="H42">
-        <v>42.04545454545455</v>
+      <c r="G42" s="2">
+        <v>70.399999999999991</v>
+      </c>
+      <c r="H42" s="2">
+        <v>42.045454545454547</v>
       </c>
       <c r="I42">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J42">
-        <v>75</v>
+        <v>97.4</v>
       </c>
       <c r="K42">
-        <v>97.40000000000001</v>
+        <v>110</v>
       </c>
       <c r="L42">
-        <v>125</v>
+        <v>88</v>
       </c>
       <c r="M42">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="N42">
-        <v>88</v>
-      </c>
-      <c r="O42">
-        <v>125</v>
-      </c>
-      <c r="P42">
-        <v>118</v>
-      </c>
-      <c r="Q42">
-        <v>94.40000000000001</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Mendes</t>
-        </is>
+        <v>94.4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
+      <c r="A43" t="s">
+        <v>55</v>
       </c>
       <c r="B43">
         <v>4</v>
@@ -2720,45 +2637,34 @@
       <c r="F43">
         <v>19</v>
       </c>
-      <c r="G43">
-        <v>89.47368421052632</v>
-      </c>
-      <c r="H43">
+      <c r="G43" s="2">
+        <v>89.473684210526315</v>
+      </c>
+      <c r="H43" s="2">
         <v>11.76470588235294</v>
       </c>
       <c r="I43">
         <v>13</v>
       </c>
       <c r="J43">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="K43">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="L43">
-        <v>19</v>
+        <v>78.95</v>
       </c>
       <c r="M43">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N43">
-        <v>78.95</v>
-      </c>
-      <c r="O43">
-        <v>19</v>
-      </c>
-      <c r="P43">
-        <v>17</v>
-      </c>
-      <c r="Q43">
         <v>89.47</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Mesquita</t>
-        </is>
+    <row r="44" spans="1:14">
+      <c r="A44" t="s">
+        <v>56</v>
       </c>
       <c r="B44">
         <v>12</v>
@@ -2775,45 +2681,34 @@
       <c r="F44">
         <v>103</v>
       </c>
-      <c r="G44">
-        <v>51.45631067961165</v>
-      </c>
-      <c r="H44">
-        <v>94.33962264150944</v>
+      <c r="G44" s="2">
+        <v>51.456310679611647</v>
+      </c>
+      <c r="H44" s="2">
+        <v>94.339622641509436</v>
       </c>
       <c r="I44">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="J44">
-        <v>37</v>
+        <v>90.24</v>
       </c>
       <c r="K44">
-        <v>90.23999999999999</v>
+        <v>91</v>
       </c>
       <c r="L44">
-        <v>103</v>
+        <v>88.35</v>
       </c>
       <c r="M44">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="N44">
-        <v>88.34999999999999</v>
-      </c>
-      <c r="O44">
-        <v>103</v>
-      </c>
-      <c r="P44">
-        <v>96</v>
-      </c>
-      <c r="Q44">
         <v>93.2</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Miguel Pereira</t>
-        </is>
+    <row r="45" spans="1:14">
+      <c r="A45" t="s">
+        <v>57</v>
       </c>
       <c r="B45">
         <v>6</v>
@@ -2830,45 +2725,34 @@
       <c r="F45">
         <v>49</v>
       </c>
-      <c r="G45">
-        <v>85.71428571428571</v>
-      </c>
-      <c r="H45">
-        <v>16.66666666666666</v>
+      <c r="G45" s="2">
+        <v>85.714285714285708</v>
+      </c>
+      <c r="H45" s="2">
+        <v>16.666666666666661</v>
       </c>
       <c r="I45">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="J45">
-        <v>26</v>
+        <v>72.22</v>
       </c>
       <c r="K45">
-        <v>72.22</v>
+        <v>24</v>
       </c>
       <c r="L45">
-        <v>49</v>
+        <v>48.98</v>
       </c>
       <c r="M45">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="N45">
-        <v>48.98</v>
-      </c>
-      <c r="O45">
-        <v>49</v>
-      </c>
-      <c r="P45">
-        <v>42</v>
-      </c>
-      <c r="Q45">
-        <v>85.70999999999999</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Miracema</t>
-        </is>
+        <v>85.71</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="A46" t="s">
+        <v>58</v>
       </c>
       <c r="B46">
         <v>5</v>
@@ -2885,45 +2769,34 @@
       <c r="F46">
         <v>64</v>
       </c>
-      <c r="G46">
+      <c r="G46" s="2">
         <v>89.0625</v>
       </c>
-      <c r="H46">
+      <c r="H46" s="2">
         <v>12.28070175438596</v>
       </c>
       <c r="I46">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="J46">
-        <v>20</v>
+        <v>38.46</v>
       </c>
       <c r="K46">
-        <v>38.46</v>
+        <v>24</v>
       </c>
       <c r="L46">
-        <v>64</v>
+        <v>37.5</v>
       </c>
       <c r="M46">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="N46">
-        <v>37.5</v>
-      </c>
-      <c r="O46">
-        <v>64</v>
-      </c>
-      <c r="P46">
-        <v>34</v>
-      </c>
-      <c r="Q46">
         <v>53.12</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Natividade</t>
-        </is>
+    <row r="47" spans="1:14">
+      <c r="A47" t="s">
+        <v>59</v>
       </c>
       <c r="B47">
         <v>4</v>
@@ -2940,23 +2813,23 @@
       <c r="F47">
         <v>36</v>
       </c>
-      <c r="G47">
-        <v>86.11111111111111</v>
-      </c>
-      <c r="H47">
+      <c r="G47" s="2">
+        <v>86.111111111111114</v>
+      </c>
+      <c r="H47" s="2">
         <v>16.12903225806452</v>
       </c>
       <c r="I47">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="J47">
-        <v>11</v>
+        <v>40.74</v>
       </c>
       <c r="K47">
-        <v>40.74</v>
+        <v>20</v>
       </c>
       <c r="L47">
-        <v>36</v>
+        <v>55.56</v>
       </c>
       <c r="M47">
         <v>20</v>
@@ -2964,21 +2837,10 @@
       <c r="N47">
         <v>55.56</v>
       </c>
-      <c r="O47">
-        <v>36</v>
-      </c>
-      <c r="P47">
-        <v>20</v>
-      </c>
-      <c r="Q47">
-        <v>55.56</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Nilópolis</t>
-        </is>
+    </row>
+    <row r="48" spans="1:14">
+      <c r="A48" t="s">
+        <v>60</v>
       </c>
       <c r="B48">
         <v>13</v>
@@ -2995,45 +2857,34 @@
       <c r="F48">
         <v>129</v>
       </c>
-      <c r="G48">
-        <v>39.53488372093023</v>
-      </c>
-      <c r="H48">
+      <c r="G48" s="2">
+        <v>39.534883720930232</v>
+      </c>
+      <c r="H48" s="2">
         <v>152.9411764705882</v>
       </c>
       <c r="I48">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="J48">
-        <v>32</v>
+        <v>86.49</v>
       </c>
       <c r="K48">
-        <v>86.48999999999999</v>
+        <v>94</v>
       </c>
       <c r="L48">
-        <v>129</v>
+        <v>72.87</v>
       </c>
       <c r="M48">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="N48">
-        <v>72.87</v>
-      </c>
-      <c r="O48">
-        <v>129</v>
-      </c>
-      <c r="P48">
-        <v>110</v>
-      </c>
-      <c r="Q48">
         <v>85.27</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Niterói</t>
-        </is>
+    <row r="49" spans="1:14">
+      <c r="A49" t="s">
+        <v>61</v>
       </c>
       <c r="B49">
         <v>49</v>
@@ -3050,45 +2901,34 @@
       <c r="F49">
         <v>382</v>
       </c>
-      <c r="G49">
-        <v>39.26701570680628</v>
-      </c>
-      <c r="H49">
-        <v>154.6666666666667</v>
+      <c r="G49" s="2">
+        <v>39.267015706806284</v>
+      </c>
+      <c r="H49" s="2">
+        <v>154.66666666666671</v>
       </c>
       <c r="I49">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="J49">
-        <v>93</v>
+        <v>94.9</v>
       </c>
       <c r="K49">
-        <v>94.90000000000001</v>
+        <v>334</v>
       </c>
       <c r="L49">
-        <v>382</v>
+        <v>87.43</v>
       </c>
       <c r="M49">
-        <v>334</v>
+        <v>366</v>
       </c>
       <c r="N49">
-        <v>87.43000000000001</v>
-      </c>
-      <c r="O49">
-        <v>382</v>
-      </c>
-      <c r="P49">
-        <v>366</v>
-      </c>
-      <c r="Q49">
         <v>95.81</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Nova Friburgo</t>
-        </is>
+    <row r="50" spans="1:14">
+      <c r="A50" t="s">
+        <v>62</v>
       </c>
       <c r="B50">
         <v>27</v>
@@ -3105,45 +2945,34 @@
       <c r="F50">
         <v>209</v>
       </c>
-      <c r="G50">
-        <v>73.20574162679426</v>
-      </c>
-      <c r="H50">
-        <v>36.60130718954248</v>
+      <c r="G50" s="2">
+        <v>73.205741626794264</v>
+      </c>
+      <c r="H50" s="2">
+        <v>36.601307189542482</v>
       </c>
       <c r="I50">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J50">
-        <v>123</v>
+        <v>98.4</v>
       </c>
       <c r="K50">
-        <v>98.40000000000001</v>
+        <v>150</v>
       </c>
       <c r="L50">
-        <v>209</v>
+        <v>71.77</v>
       </c>
       <c r="M50">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N50">
-        <v>71.77</v>
-      </c>
-      <c r="O50">
-        <v>209</v>
-      </c>
-      <c r="P50">
-        <v>200</v>
-      </c>
-      <c r="Q50">
         <v>95.69</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Nova Iguaçu</t>
-        </is>
+    <row r="51" spans="1:14">
+      <c r="A51" t="s">
+        <v>63</v>
       </c>
       <c r="B51">
         <v>84</v>
@@ -3160,45 +2989,34 @@
       <c r="F51">
         <v>508</v>
       </c>
-      <c r="G51">
-        <v>47.04724409448819</v>
-      </c>
-      <c r="H51">
-        <v>112.5523012552301</v>
+      <c r="G51" s="2">
+        <v>47.047244094488192</v>
+      </c>
+      <c r="H51" s="2">
+        <v>112.55230125523011</v>
       </c>
       <c r="I51">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="J51">
-        <v>141</v>
+        <v>91.56</v>
       </c>
       <c r="K51">
-        <v>91.56</v>
+        <v>443</v>
       </c>
       <c r="L51">
-        <v>508</v>
+        <v>87.2</v>
       </c>
       <c r="M51">
-        <v>443</v>
+        <v>485</v>
       </c>
       <c r="N51">
-        <v>87.2</v>
-      </c>
-      <c r="O51">
-        <v>508</v>
-      </c>
-      <c r="P51">
-        <v>485</v>
-      </c>
-      <c r="Q51">
         <v>95.47</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>Paracambi</t>
-        </is>
+    <row r="52" spans="1:14">
+      <c r="A52" t="s">
+        <v>64</v>
       </c>
       <c r="B52">
         <v>5</v>
@@ -3215,45 +3033,34 @@
       <c r="F52">
         <v>42</v>
       </c>
-      <c r="G52">
-        <v>69.04761904761905</v>
-      </c>
-      <c r="H52">
-        <v>44.82758620689656</v>
+      <c r="G52" s="2">
+        <v>69.047619047619051</v>
+      </c>
+      <c r="H52" s="2">
+        <v>44.827586206896562</v>
       </c>
       <c r="I52">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J52">
-        <v>20</v>
+        <v>86.96</v>
       </c>
       <c r="K52">
-        <v>86.95999999999999</v>
+        <v>31</v>
       </c>
       <c r="L52">
-        <v>42</v>
+        <v>73.81</v>
       </c>
       <c r="M52">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="N52">
-        <v>73.81</v>
-      </c>
-      <c r="O52">
-        <v>42</v>
-      </c>
-      <c r="P52">
-        <v>38</v>
-      </c>
-      <c r="Q52">
         <v>90.48</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Paraty</t>
-        </is>
+    <row r="53" spans="1:14">
+      <c r="A53" t="s">
+        <v>65</v>
       </c>
       <c r="B53">
         <v>5</v>
@@ -3270,45 +3077,34 @@
       <c r="F53">
         <v>68</v>
       </c>
-      <c r="G53">
+      <c r="G53" s="2">
         <v>82.35294117647058</v>
       </c>
-      <c r="H53">
-        <v>21.42857142857143</v>
+      <c r="H53" s="2">
+        <v>21.428571428571431</v>
       </c>
       <c r="I53">
+        <v>36</v>
+      </c>
+      <c r="J53">
+        <v>70.59</v>
+      </c>
+      <c r="K53">
+        <v>37</v>
+      </c>
+      <c r="L53">
+        <v>54.41</v>
+      </c>
+      <c r="M53">
         <v>51</v>
       </c>
-      <c r="J53">
-        <v>36</v>
-      </c>
-      <c r="K53">
-        <v>70.59</v>
-      </c>
-      <c r="L53">
-        <v>68</v>
-      </c>
-      <c r="M53">
-        <v>37</v>
-      </c>
       <c r="N53">
-        <v>54.41</v>
-      </c>
-      <c r="O53">
-        <v>68</v>
-      </c>
-      <c r="P53">
-        <v>51</v>
-      </c>
-      <c r="Q53">
         <v>75</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>Paraíba do Sul</t>
-        </is>
+    <row r="54" spans="1:14">
+      <c r="A54" t="s">
+        <v>66</v>
       </c>
       <c r="B54">
         <v>5</v>
@@ -3325,23 +3121,23 @@
       <c r="F54">
         <v>40</v>
       </c>
-      <c r="G54">
+      <c r="G54" s="2">
         <v>92.5</v>
       </c>
-      <c r="H54">
-        <v>8.108108108108109</v>
+      <c r="H54" s="2">
+        <v>8.1081081081081088</v>
       </c>
       <c r="I54">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J54">
-        <v>29</v>
+        <v>90.62</v>
       </c>
       <c r="K54">
-        <v>90.62</v>
+        <v>37</v>
       </c>
       <c r="L54">
-        <v>40</v>
+        <v>92.5</v>
       </c>
       <c r="M54">
         <v>37</v>
@@ -3349,21 +3145,10 @@
       <c r="N54">
         <v>92.5</v>
       </c>
-      <c r="O54">
-        <v>40</v>
-      </c>
-      <c r="P54">
-        <v>37</v>
-      </c>
-      <c r="Q54">
-        <v>92.5</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>Paty do Alferes</t>
-        </is>
+    </row>
+    <row r="55" spans="1:14">
+      <c r="A55" t="s">
+        <v>67</v>
       </c>
       <c r="B55">
         <v>3</v>
@@ -3380,45 +3165,34 @@
       <c r="F55">
         <v>30</v>
       </c>
-      <c r="G55">
+      <c r="G55" s="2">
         <v>90</v>
       </c>
-      <c r="H55">
-        <v>11.11111111111111</v>
+      <c r="H55" s="2">
+        <v>11.111111111111111</v>
       </c>
       <c r="I55">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J55">
-        <v>22</v>
+        <v>91.67</v>
       </c>
       <c r="K55">
-        <v>91.67</v>
+        <v>20</v>
       </c>
       <c r="L55">
-        <v>30</v>
+        <v>66.67</v>
       </c>
       <c r="M55">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="N55">
-        <v>66.67</v>
-      </c>
-      <c r="O55">
-        <v>30</v>
-      </c>
-      <c r="P55">
-        <v>27</v>
-      </c>
-      <c r="Q55">
         <v>90</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>Petrópolis</t>
-        </is>
+    <row r="56" spans="1:14">
+      <c r="A56" t="s">
+        <v>68</v>
       </c>
       <c r="B56">
         <v>13</v>
@@ -3435,45 +3209,34 @@
       <c r="F56">
         <v>308</v>
       </c>
-      <c r="G56">
-        <v>66.23376623376623</v>
-      </c>
-      <c r="H56">
-        <v>50.98039215686274</v>
+      <c r="G56" s="2">
+        <v>66.233766233766232</v>
+      </c>
+      <c r="H56" s="2">
+        <v>50.980392156862742</v>
       </c>
       <c r="I56">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="J56">
-        <v>176</v>
+        <v>92.63</v>
       </c>
       <c r="K56">
-        <v>92.63</v>
+        <v>245</v>
       </c>
       <c r="L56">
-        <v>308</v>
+        <v>79.55</v>
       </c>
       <c r="M56">
-        <v>245</v>
+        <v>283</v>
       </c>
       <c r="N56">
-        <v>79.55</v>
-      </c>
-      <c r="O56">
-        <v>308</v>
-      </c>
-      <c r="P56">
-        <v>283</v>
-      </c>
-      <c r="Q56">
         <v>91.88</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>Pinheiral</t>
-        </is>
+    <row r="57" spans="1:14">
+      <c r="A57" t="s">
+        <v>69</v>
       </c>
       <c r="B57">
         <v>2</v>
@@ -3490,45 +3253,34 @@
       <c r="F57">
         <v>32</v>
       </c>
-      <c r="G57">
+      <c r="G57" s="2">
         <v>71.875</v>
       </c>
-      <c r="H57">
-        <v>39.1304347826087</v>
+      <c r="H57" s="2">
+        <v>39.130434782608702</v>
       </c>
       <c r="I57">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J57">
-        <v>19</v>
+        <v>95</v>
       </c>
       <c r="K57">
-        <v>95</v>
+        <v>24</v>
       </c>
       <c r="L57">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="M57">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="N57">
-        <v>75</v>
-      </c>
-      <c r="O57">
-        <v>32</v>
-      </c>
-      <c r="P57">
-        <v>31</v>
-      </c>
-      <c r="Q57">
         <v>96.88</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>Piraí</t>
-        </is>
+    <row r="58" spans="1:14">
+      <c r="A58" t="s">
+        <v>70</v>
       </c>
       <c r="B58">
         <v>3</v>
@@ -3545,45 +3297,34 @@
       <c r="F58">
         <v>40</v>
       </c>
-      <c r="G58">
+      <c r="G58" s="2">
         <v>85</v>
       </c>
-      <c r="H58">
-        <v>17.64705882352941</v>
+      <c r="H58" s="2">
+        <v>17.647058823529409</v>
       </c>
       <c r="I58">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="J58">
-        <v>22</v>
+        <v>70.97</v>
       </c>
       <c r="K58">
-        <v>70.97</v>
+        <v>21</v>
       </c>
       <c r="L58">
-        <v>40</v>
+        <v>52.5</v>
       </c>
       <c r="M58">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="N58">
-        <v>52.5</v>
-      </c>
-      <c r="O58">
-        <v>40</v>
-      </c>
-      <c r="P58">
-        <v>30</v>
-      </c>
-      <c r="Q58">
         <v>75</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>Porciúncula</t>
-        </is>
+    <row r="59" spans="1:14">
+      <c r="A59" t="s">
+        <v>71</v>
       </c>
       <c r="B59">
         <v>4</v>
@@ -3600,45 +3341,34 @@
       <c r="F59">
         <v>37</v>
       </c>
-      <c r="G59">
-        <v>91.8918918918919</v>
-      </c>
-      <c r="H59">
-        <v>8.823529411764707</v>
+      <c r="G59" s="2">
+        <v>91.891891891891902</v>
+      </c>
+      <c r="H59" s="2">
+        <v>8.8235294117647065</v>
       </c>
       <c r="I59">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="J59">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="K59">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="L59">
-        <v>37</v>
+        <v>45.95</v>
       </c>
       <c r="M59">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="N59">
-        <v>45.95</v>
-      </c>
-      <c r="O59">
-        <v>37</v>
-      </c>
-      <c r="P59">
-        <v>19</v>
-      </c>
-      <c r="Q59">
         <v>51.35</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>Porto Real</t>
-        </is>
+    <row r="60" spans="1:14">
+      <c r="A60" t="s">
+        <v>72</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -3655,23 +3385,23 @@
       <c r="F60">
         <v>16</v>
       </c>
-      <c r="G60">
+      <c r="G60" s="2">
         <v>87.5</v>
       </c>
-      <c r="H60">
-        <v>14.28571428571428</v>
+      <c r="H60" s="2">
+        <v>14.285714285714279</v>
       </c>
       <c r="I60">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J60">
-        <v>12</v>
+        <v>92.31</v>
       </c>
       <c r="K60">
-        <v>92.31</v>
+        <v>15</v>
       </c>
       <c r="L60">
-        <v>16</v>
+        <v>93.75</v>
       </c>
       <c r="M60">
         <v>15</v>
@@ -3679,21 +3409,10 @@
       <c r="N60">
         <v>93.75</v>
       </c>
-      <c r="O60">
-        <v>16</v>
-      </c>
-      <c r="P60">
-        <v>15</v>
-      </c>
-      <c r="Q60">
-        <v>93.75</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>Quatis</t>
-        </is>
+    </row>
+    <row r="61" spans="1:14">
+      <c r="A61" t="s">
+        <v>73</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -3710,23 +3429,23 @@
       <c r="F61">
         <v>15</v>
       </c>
-      <c r="G61">
-        <v>93.33333333333333</v>
-      </c>
-      <c r="H61">
-        <v>7.142857142857142</v>
+      <c r="G61" s="2">
+        <v>93.333333333333329</v>
+      </c>
+      <c r="H61" s="2">
+        <v>7.1428571428571423</v>
       </c>
       <c r="I61">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J61">
-        <v>12</v>
+        <v>92.31</v>
       </c>
       <c r="K61">
-        <v>92.31</v>
+        <v>14</v>
       </c>
       <c r="L61">
-        <v>15</v>
+        <v>93.33</v>
       </c>
       <c r="M61">
         <v>14</v>
@@ -3734,21 +3453,10 @@
       <c r="N61">
         <v>93.33</v>
       </c>
-      <c r="O61">
-        <v>15</v>
-      </c>
-      <c r="P61">
-        <v>14</v>
-      </c>
-      <c r="Q61">
-        <v>93.33</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>Queimados</t>
-        </is>
+    </row>
+    <row r="62" spans="1:14">
+      <c r="A62" t="s">
+        <v>74</v>
       </c>
       <c r="B62">
         <v>13</v>
@@ -3765,45 +3473,34 @@
       <c r="F62">
         <v>80</v>
       </c>
-      <c r="G62">
-        <v>63.74999999999999</v>
-      </c>
-      <c r="H62">
-        <v>56.86274509803921</v>
+      <c r="G62" s="2">
+        <v>63.749999999999993</v>
+      </c>
+      <c r="H62" s="2">
+        <v>56.862745098039213</v>
       </c>
       <c r="I62">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="J62">
-        <v>32</v>
+        <v>84.21</v>
       </c>
       <c r="K62">
-        <v>84.20999999999999</v>
+        <v>65</v>
       </c>
       <c r="L62">
-        <v>80</v>
+        <v>81.25</v>
       </c>
       <c r="M62">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="N62">
-        <v>81.25</v>
-      </c>
-      <c r="O62">
-        <v>80</v>
-      </c>
-      <c r="P62">
-        <v>73</v>
-      </c>
-      <c r="Q62">
         <v>91.25</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>Quissamã</t>
-        </is>
+    <row r="63" spans="1:14">
+      <c r="A63" t="s">
+        <v>75</v>
       </c>
       <c r="B63">
         <v>3</v>
@@ -3820,45 +3517,34 @@
       <c r="F63">
         <v>23</v>
       </c>
-      <c r="G63">
-        <v>91.30434782608695</v>
-      </c>
-      <c r="H63">
-        <v>9.523809523809524</v>
+      <c r="G63" s="2">
+        <v>91.304347826086953</v>
+      </c>
+      <c r="H63" s="2">
+        <v>9.5238095238095237</v>
       </c>
       <c r="I63">
         <v>17</v>
       </c>
       <c r="J63">
-        <v>17</v>
+        <v>100</v>
       </c>
       <c r="K63">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="L63">
-        <v>23</v>
+        <v>78.260000000000005</v>
       </c>
       <c r="M63">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="N63">
-        <v>78.26000000000001</v>
-      </c>
-      <c r="O63">
-        <v>23</v>
-      </c>
-      <c r="P63">
-        <v>21</v>
-      </c>
-      <c r="Q63">
         <v>91.3</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>Resende</t>
-        </is>
+    <row r="64" spans="1:14">
+      <c r="A64" t="s">
+        <v>76</v>
       </c>
       <c r="B64">
         <v>16</v>
@@ -3875,45 +3561,34 @@
       <c r="F64">
         <v>121</v>
       </c>
-      <c r="G64">
-        <v>70.24793388429752</v>
-      </c>
-      <c r="H64">
-        <v>42.35294117647059</v>
+      <c r="G64" s="2">
+        <v>70.247933884297524</v>
+      </c>
+      <c r="H64" s="2">
+        <v>42.352941176470587</v>
       </c>
       <c r="I64">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J64">
-        <v>65</v>
+        <v>95.59</v>
       </c>
       <c r="K64">
-        <v>95.59</v>
+        <v>110</v>
       </c>
       <c r="L64">
-        <v>121</v>
+        <v>90.91</v>
       </c>
       <c r="M64">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="N64">
-        <v>90.91</v>
-      </c>
-      <c r="O64">
-        <v>121</v>
-      </c>
-      <c r="P64">
-        <v>113</v>
-      </c>
-      <c r="Q64">
         <v>93.39</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>Rio Bonito</t>
-        </is>
+    <row r="65" spans="1:14">
+      <c r="A65" t="s">
+        <v>77</v>
       </c>
       <c r="B65">
         <v>7</v>
@@ -3930,45 +3605,34 @@
       <c r="F65">
         <v>68</v>
       </c>
-      <c r="G65">
-        <v>86.76470588235294</v>
-      </c>
-      <c r="H65">
+      <c r="G65" s="2">
+        <v>86.764705882352942</v>
+      </c>
+      <c r="H65" s="2">
         <v>15.25423728813559</v>
       </c>
       <c r="I65">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="J65">
-        <v>38</v>
+        <v>73.08</v>
       </c>
       <c r="K65">
-        <v>73.08</v>
+        <v>40</v>
       </c>
       <c r="L65">
-        <v>68</v>
+        <v>58.82</v>
       </c>
       <c r="M65">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="N65">
-        <v>58.82</v>
-      </c>
-      <c r="O65">
-        <v>68</v>
-      </c>
-      <c r="P65">
-        <v>55</v>
-      </c>
-      <c r="Q65">
         <v>80.88</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>Rio Claro</t>
-        </is>
+    <row r="66" spans="1:14">
+      <c r="A66" t="s">
+        <v>78</v>
       </c>
       <c r="B66">
         <v>4</v>
@@ -3985,23 +3649,23 @@
       <c r="F66">
         <v>25</v>
       </c>
-      <c r="G66">
+      <c r="G66" s="2">
         <v>96</v>
       </c>
-      <c r="H66">
-        <v>4.166666666666666</v>
+      <c r="H66" s="2">
+        <v>4.1666666666666661</v>
       </c>
       <c r="I66">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J66">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="K66">
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="L66">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="M66">
         <v>21</v>
@@ -4009,21 +3673,10 @@
       <c r="N66">
         <v>84</v>
       </c>
-      <c r="O66">
-        <v>25</v>
-      </c>
-      <c r="P66">
-        <v>21</v>
-      </c>
-      <c r="Q66">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>Rio das Flores</t>
-        </is>
+    </row>
+    <row r="67" spans="1:14">
+      <c r="A67" t="s">
+        <v>79</v>
       </c>
       <c r="B67">
         <v>2</v>
@@ -4040,23 +3693,23 @@
       <c r="F67">
         <v>34</v>
       </c>
-      <c r="G67">
+      <c r="G67" s="2">
         <v>100</v>
       </c>
-      <c r="H67">
+      <c r="H67" s="2">
         <v>0</v>
       </c>
       <c r="I67">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="J67">
-        <v>10</v>
+        <v>31.25</v>
       </c>
       <c r="K67">
-        <v>31.25</v>
+        <v>12</v>
       </c>
       <c r="L67">
-        <v>34</v>
+        <v>35.29</v>
       </c>
       <c r="M67">
         <v>12</v>
@@ -4064,21 +3717,10 @@
       <c r="N67">
         <v>35.29</v>
       </c>
-      <c r="O67">
-        <v>34</v>
-      </c>
-      <c r="P67">
-        <v>12</v>
-      </c>
-      <c r="Q67">
-        <v>35.29</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>Rio das Ostras</t>
-        </is>
+    </row>
+    <row r="68" spans="1:14">
+      <c r="A68" t="s">
+        <v>80</v>
       </c>
       <c r="B68">
         <v>5</v>
@@ -4095,45 +3737,34 @@
       <c r="F68">
         <v>103</v>
       </c>
-      <c r="G68">
-        <v>54.36893203883495</v>
-      </c>
-      <c r="H68">
-        <v>83.92857142857143</v>
+      <c r="G68" s="2">
+        <v>54.368932038834949</v>
+      </c>
+      <c r="H68" s="2">
+        <v>83.928571428571431</v>
       </c>
       <c r="I68">
         <v>51</v>
       </c>
       <c r="J68">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="K68">
+        <v>90</v>
+      </c>
+      <c r="L68">
+        <v>87.38</v>
+      </c>
+      <c r="M68">
         <v>100</v>
       </c>
-      <c r="L68">
-        <v>103</v>
-      </c>
-      <c r="M68">
-        <v>90</v>
-      </c>
       <c r="N68">
-        <v>87.38</v>
-      </c>
-      <c r="O68">
-        <v>103</v>
-      </c>
-      <c r="P68">
-        <v>100</v>
-      </c>
-      <c r="Q68">
         <v>97.09</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>Rio de Janeiro</t>
-        </is>
+    <row r="69" spans="1:14">
+      <c r="A69" t="s">
+        <v>81</v>
       </c>
       <c r="B69">
         <v>353</v>
@@ -4150,45 +3781,34 @@
       <c r="F69">
         <v>4203</v>
       </c>
-      <c r="G69">
+      <c r="G69" s="2">
         <v>47.29954794194623</v>
       </c>
-      <c r="H69">
-        <v>111.4185110663984</v>
+      <c r="H69" s="2">
+        <v>111.41851106639839</v>
       </c>
       <c r="I69">
-        <v>1605</v>
+        <v>1557</v>
       </c>
       <c r="J69">
-        <v>1557</v>
+        <v>97.01</v>
       </c>
       <c r="K69">
-        <v>97.01000000000001</v>
+        <v>3122</v>
       </c>
       <c r="L69">
-        <v>4203</v>
+        <v>74.28</v>
       </c>
       <c r="M69">
-        <v>3122</v>
+        <v>3999</v>
       </c>
       <c r="N69">
-        <v>74.28</v>
-      </c>
-      <c r="O69">
-        <v>4203</v>
-      </c>
-      <c r="P69">
-        <v>3999</v>
-      </c>
-      <c r="Q69">
-        <v>95.15000000000001</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>Santa Maria Madalena</t>
-        </is>
+        <v>95.15</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14">
+      <c r="A70" t="s">
+        <v>82</v>
       </c>
       <c r="B70">
         <v>4</v>
@@ -4205,45 +3825,34 @@
       <c r="F70">
         <v>44</v>
       </c>
-      <c r="G70">
-        <v>93.18181818181817</v>
-      </c>
-      <c r="H70">
-        <v>7.317073170731707</v>
+      <c r="G70" s="2">
+        <v>93.181818181818173</v>
+      </c>
+      <c r="H70" s="2">
+        <v>7.3170731707317067</v>
       </c>
       <c r="I70">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="J70">
-        <v>12</v>
+        <v>32.43</v>
       </c>
       <c r="K70">
-        <v>32.43</v>
+        <v>11</v>
       </c>
       <c r="L70">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="M70">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="N70">
-        <v>25</v>
-      </c>
-      <c r="O70">
-        <v>44</v>
-      </c>
-      <c r="P70">
-        <v>16</v>
-      </c>
-      <c r="Q70">
         <v>36.36</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>Santo Antônio de Pádua</t>
-        </is>
+    <row r="71" spans="1:14">
+      <c r="A71" t="s">
+        <v>83</v>
       </c>
       <c r="B71">
         <v>12</v>
@@ -4260,45 +3869,34 @@
       <c r="F71">
         <v>90</v>
       </c>
-      <c r="G71">
-        <v>88.88888888888889</v>
-      </c>
-      <c r="H71">
+      <c r="G71" s="2">
+        <v>88.888888888888886</v>
+      </c>
+      <c r="H71" s="2">
         <v>12.5</v>
       </c>
       <c r="I71">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="J71">
-        <v>31</v>
+        <v>46.27</v>
       </c>
       <c r="K71">
-        <v>46.27</v>
+        <v>38</v>
       </c>
       <c r="L71">
-        <v>90</v>
+        <v>42.22</v>
       </c>
       <c r="M71">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="N71">
-        <v>42.22</v>
-      </c>
-      <c r="O71">
-        <v>90</v>
-      </c>
-      <c r="P71">
-        <v>51</v>
-      </c>
-      <c r="Q71">
         <v>56.67</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>Sapucaia</t>
-        </is>
+    <row r="72" spans="1:14">
+      <c r="A72" t="s">
+        <v>84</v>
       </c>
       <c r="B72">
         <v>6</v>
@@ -4315,45 +3913,34 @@
       <c r="F72">
         <v>26</v>
       </c>
-      <c r="G72">
-        <v>92.30769230769231</v>
-      </c>
-      <c r="H72">
-        <v>8.333333333333332</v>
+      <c r="G72" s="2">
+        <v>92.307692307692307</v>
+      </c>
+      <c r="H72" s="2">
+        <v>8.3333333333333321</v>
       </c>
       <c r="I72">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J72">
-        <v>16</v>
+        <v>88.89</v>
       </c>
       <c r="K72">
-        <v>88.89</v>
+        <v>14</v>
       </c>
       <c r="L72">
-        <v>26</v>
+        <v>53.85</v>
       </c>
       <c r="M72">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="N72">
-        <v>53.85</v>
-      </c>
-      <c r="O72">
-        <v>26</v>
-      </c>
-      <c r="P72">
-        <v>23</v>
-      </c>
-      <c r="Q72">
-        <v>88.45999999999999</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>Saquarema</t>
-        </is>
+        <v>88.46</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14">
+      <c r="A73" t="s">
+        <v>85</v>
       </c>
       <c r="B73">
         <v>9</v>
@@ -4370,45 +3957,34 @@
       <c r="F73">
         <v>96</v>
       </c>
-      <c r="G73">
-        <v>86.45833333333334</v>
-      </c>
-      <c r="H73">
+      <c r="G73" s="2">
+        <v>86.458333333333343</v>
+      </c>
+      <c r="H73" s="2">
         <v>15.66265060240964</v>
       </c>
       <c r="I73">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="J73">
-        <v>70</v>
+        <v>94.59</v>
       </c>
       <c r="K73">
-        <v>94.59</v>
+        <v>79</v>
       </c>
       <c r="L73">
-        <v>96</v>
+        <v>82.29</v>
       </c>
       <c r="M73">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="N73">
-        <v>82.29000000000001</v>
-      </c>
-      <c r="O73">
-        <v>96</v>
-      </c>
-      <c r="P73">
-        <v>91</v>
-      </c>
-      <c r="Q73">
-        <v>94.79000000000001</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>Seropédica</t>
-        </is>
+        <v>94.79</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14">
+      <c r="A74" t="s">
+        <v>86</v>
       </c>
       <c r="B74">
         <v>10</v>
@@ -4425,45 +4001,34 @@
       <c r="F74">
         <v>73</v>
       </c>
-      <c r="G74">
-        <v>80.82191780821918</v>
-      </c>
-      <c r="H74">
-        <v>23.72881355932203</v>
+      <c r="G74" s="2">
+        <v>80.821917808219183</v>
+      </c>
+      <c r="H74" s="2">
+        <v>23.728813559322031</v>
       </c>
       <c r="I74">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="J74">
-        <v>43</v>
+        <v>89.58</v>
       </c>
       <c r="K74">
-        <v>89.58</v>
+        <v>53</v>
       </c>
       <c r="L74">
-        <v>73</v>
+        <v>72.599999999999994</v>
       </c>
       <c r="M74">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="N74">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="O74">
-        <v>73</v>
-      </c>
-      <c r="P74">
-        <v>68</v>
-      </c>
-      <c r="Q74">
-        <v>93.15000000000001</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>Silva Jardim</t>
-        </is>
+        <v>93.15</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14">
+      <c r="A75" t="s">
+        <v>87</v>
       </c>
       <c r="B75">
         <v>2</v>
@@ -4480,45 +4045,34 @@
       <c r="F75">
         <v>56</v>
       </c>
-      <c r="G75">
-        <v>91.07142857142857</v>
-      </c>
-      <c r="H75">
-        <v>9.803921568627452</v>
+      <c r="G75" s="2">
+        <v>91.071428571428569</v>
+      </c>
+      <c r="H75" s="2">
+        <v>9.8039215686274517</v>
       </c>
       <c r="I75">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="J75">
-        <v>19</v>
+        <v>38.78</v>
       </c>
       <c r="K75">
-        <v>38.78</v>
+        <v>20</v>
       </c>
       <c r="L75">
-        <v>56</v>
+        <v>35.71</v>
       </c>
       <c r="M75">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N75">
-        <v>35.71</v>
-      </c>
-      <c r="O75">
-        <v>56</v>
-      </c>
-      <c r="P75">
-        <v>24</v>
-      </c>
-      <c r="Q75">
         <v>42.86</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>Sumidouro</t>
-        </is>
+    <row r="76" spans="1:14">
+      <c r="A76" t="s">
+        <v>88</v>
       </c>
       <c r="B76">
         <v>2</v>
@@ -4535,45 +4089,34 @@
       <c r="F76">
         <v>29</v>
       </c>
-      <c r="G76">
-        <v>96.55172413793103</v>
-      </c>
-      <c r="H76">
-        <v>3.571428571428571</v>
+      <c r="G76" s="2">
+        <v>96.551724137931032</v>
+      </c>
+      <c r="H76" s="2">
+        <v>3.5714285714285712</v>
       </c>
       <c r="I76">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J76">
-        <v>24</v>
+        <v>92.31</v>
       </c>
       <c r="K76">
-        <v>92.31</v>
+        <v>11</v>
       </c>
       <c r="L76">
-        <v>29</v>
+        <v>37.93</v>
       </c>
       <c r="M76">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="N76">
-        <v>37.93</v>
-      </c>
-      <c r="O76">
-        <v>29</v>
-      </c>
-      <c r="P76">
-        <v>27</v>
-      </c>
-      <c r="Q76">
-        <v>93.09999999999999</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>São Fidélis</t>
-        </is>
+        <v>93.1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14">
+      <c r="A77" t="s">
+        <v>89</v>
       </c>
       <c r="B77">
         <v>7</v>
@@ -4590,45 +4133,34 @@
       <c r="F77">
         <v>53</v>
       </c>
-      <c r="G77">
-        <v>79.24528301886792</v>
-      </c>
-      <c r="H77">
+      <c r="G77" s="2">
+        <v>79.245283018867923</v>
+      </c>
+      <c r="H77" s="2">
         <v>26.19047619047619</v>
       </c>
       <c r="I77">
+        <v>22</v>
+      </c>
+      <c r="J77">
+        <v>62.86</v>
+      </c>
+      <c r="K77">
+        <v>32</v>
+      </c>
+      <c r="L77">
+        <v>60.38</v>
+      </c>
+      <c r="M77">
         <v>35</v>
       </c>
-      <c r="J77">
-        <v>22</v>
-      </c>
-      <c r="K77">
-        <v>62.86</v>
-      </c>
-      <c r="L77">
-        <v>53</v>
-      </c>
-      <c r="M77">
-        <v>32</v>
-      </c>
       <c r="N77">
-        <v>60.38</v>
-      </c>
-      <c r="O77">
-        <v>53</v>
-      </c>
-      <c r="P77">
-        <v>35</v>
-      </c>
-      <c r="Q77">
-        <v>66.04000000000001</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>São Francisco de Itabapoana</t>
-        </is>
+        <v>66.040000000000006</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14">
+      <c r="A78" t="s">
+        <v>90</v>
       </c>
       <c r="B78">
         <v>19</v>
@@ -4645,45 +4177,34 @@
       <c r="F78">
         <v>104</v>
       </c>
-      <c r="G78">
+      <c r="G78" s="2">
         <v>96.15384615384616</v>
       </c>
-      <c r="H78">
+      <c r="H78" s="2">
         <v>4</v>
       </c>
       <c r="I78">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="J78">
-        <v>56</v>
+        <v>69.14</v>
       </c>
       <c r="K78">
-        <v>69.14</v>
+        <v>37</v>
       </c>
       <c r="L78">
-        <v>104</v>
+        <v>35.58</v>
       </c>
       <c r="M78">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="N78">
-        <v>35.58</v>
-      </c>
-      <c r="O78">
-        <v>104</v>
-      </c>
-      <c r="P78">
-        <v>68</v>
-      </c>
-      <c r="Q78">
         <v>65.38</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>São Gonçalo</t>
-        </is>
+    <row r="79" spans="1:14">
+      <c r="A79" t="s">
+        <v>91</v>
       </c>
       <c r="B79">
         <v>80</v>
@@ -4700,45 +4221,34 @@
       <c r="F79">
         <v>576</v>
       </c>
-      <c r="G79">
-        <v>34.20138888888889</v>
-      </c>
-      <c r="H79">
-        <v>192.3857868020305</v>
+      <c r="G79" s="2">
+        <v>34.201388888888893</v>
+      </c>
+      <c r="H79" s="2">
+        <v>192.38578680203051</v>
       </c>
       <c r="I79">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="J79">
-        <v>105</v>
+        <v>90.52</v>
       </c>
       <c r="K79">
-        <v>90.52</v>
+        <v>435</v>
       </c>
       <c r="L79">
-        <v>576</v>
+        <v>75.52</v>
       </c>
       <c r="M79">
-        <v>435</v>
+        <v>515</v>
       </c>
       <c r="N79">
-        <v>75.52</v>
-      </c>
-      <c r="O79">
-        <v>576</v>
-      </c>
-      <c r="P79">
-        <v>515</v>
-      </c>
-      <c r="Q79">
         <v>89.41</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>São José de Ubá</t>
-        </is>
+    <row r="80" spans="1:14">
+      <c r="A80" t="s">
+        <v>92</v>
       </c>
       <c r="B80">
         <v>3</v>
@@ -4755,23 +4265,23 @@
       <c r="F80">
         <v>17</v>
       </c>
-      <c r="G80">
-        <v>94.11764705882352</v>
-      </c>
-      <c r="H80">
+      <c r="G80" s="2">
+        <v>94.117647058823522</v>
+      </c>
+      <c r="H80" s="2">
         <v>6.25</v>
       </c>
       <c r="I80">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="J80">
-        <v>6</v>
+        <v>46.15</v>
       </c>
       <c r="K80">
-        <v>46.15</v>
+        <v>8</v>
       </c>
       <c r="L80">
-        <v>17</v>
+        <v>47.06</v>
       </c>
       <c r="M80">
         <v>8</v>
@@ -4779,21 +4289,10 @@
       <c r="N80">
         <v>47.06</v>
       </c>
-      <c r="O80">
-        <v>17</v>
-      </c>
-      <c r="P80">
-        <v>8</v>
-      </c>
-      <c r="Q80">
-        <v>47.06</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>São José do Vale do Rio Preto</t>
-        </is>
+    </row>
+    <row r="81" spans="1:14">
+      <c r="A81" t="s">
+        <v>93</v>
       </c>
       <c r="B81">
         <v>1</v>
@@ -4810,45 +4309,34 @@
       <c r="F81">
         <v>18</v>
       </c>
-      <c r="G81">
-        <v>83.33333333333334</v>
-      </c>
-      <c r="H81">
+      <c r="G81" s="2">
+        <v>83.333333333333343</v>
+      </c>
+      <c r="H81" s="2">
         <v>20</v>
       </c>
       <c r="I81">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J81">
-        <v>13</v>
+        <v>92.86</v>
       </c>
       <c r="K81">
-        <v>92.86</v>
+        <v>16</v>
       </c>
       <c r="L81">
-        <v>18</v>
+        <v>88.89</v>
       </c>
       <c r="M81">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N81">
-        <v>88.89</v>
-      </c>
-      <c r="O81">
-        <v>18</v>
-      </c>
-      <c r="P81">
-        <v>17</v>
-      </c>
-      <c r="Q81">
         <v>94.44</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>São João da Barra</t>
-        </is>
+    <row r="82" spans="1:14">
+      <c r="A82" t="s">
+        <v>94</v>
       </c>
       <c r="B82">
         <v>7</v>
@@ -4865,45 +4353,34 @@
       <c r="F82">
         <v>60</v>
       </c>
-      <c r="G82">
+      <c r="G82" s="2">
         <v>90</v>
       </c>
-      <c r="H82">
-        <v>11.11111111111111</v>
+      <c r="H82" s="2">
+        <v>11.111111111111111</v>
       </c>
       <c r="I82">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="J82">
-        <v>25</v>
+        <v>54.35</v>
       </c>
       <c r="K82">
-        <v>54.35</v>
+        <v>43</v>
       </c>
       <c r="L82">
-        <v>60</v>
+        <v>71.67</v>
       </c>
       <c r="M82">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="N82">
-        <v>71.67</v>
-      </c>
-      <c r="O82">
-        <v>60</v>
-      </c>
-      <c r="P82">
-        <v>50</v>
-      </c>
-      <c r="Q82">
         <v>83.33</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>São João de Meriti</t>
-        </is>
+    <row r="83" spans="1:14">
+      <c r="A83" t="s">
+        <v>95</v>
       </c>
       <c r="B83">
         <v>44</v>
@@ -4920,45 +4397,34 @@
       <c r="F83">
         <v>315</v>
       </c>
-      <c r="G83">
-        <v>37.77777777777778</v>
-      </c>
-      <c r="H83">
-        <v>164.7058823529412</v>
+      <c r="G83" s="2">
+        <v>37.777777777777779</v>
+      </c>
+      <c r="H83" s="2">
+        <v>164.70588235294119</v>
       </c>
       <c r="I83">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="J83">
-        <v>69</v>
+        <v>93.24</v>
       </c>
       <c r="K83">
-        <v>93.23999999999999</v>
+        <v>240</v>
       </c>
       <c r="L83">
-        <v>315</v>
+        <v>76.19</v>
       </c>
       <c r="M83">
-        <v>240</v>
+        <v>272</v>
       </c>
       <c r="N83">
-        <v>76.19</v>
-      </c>
-      <c r="O83">
-        <v>315</v>
-      </c>
-      <c r="P83">
-        <v>272</v>
-      </c>
-      <c r="Q83">
-        <v>86.34999999999999</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>São Pedro da Aldeia</t>
-        </is>
+        <v>86.35</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14">
+      <c r="A84" t="s">
+        <v>96</v>
       </c>
       <c r="B84">
         <v>9</v>
@@ -4975,45 +4441,34 @@
       <c r="F84">
         <v>87</v>
       </c>
-      <c r="G84">
-        <v>66.66666666666666</v>
-      </c>
-      <c r="H84">
+      <c r="G84" s="2">
+        <v>66.666666666666657</v>
+      </c>
+      <c r="H84" s="2">
         <v>50</v>
       </c>
       <c r="I84">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J84">
-        <v>42</v>
+        <v>85.71</v>
       </c>
       <c r="K84">
-        <v>85.70999999999999</v>
+        <v>64</v>
       </c>
       <c r="L84">
-        <v>87</v>
+        <v>73.56</v>
       </c>
       <c r="M84">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="N84">
-        <v>73.56</v>
-      </c>
-      <c r="O84">
-        <v>87</v>
-      </c>
-      <c r="P84">
-        <v>79</v>
-      </c>
-      <c r="Q84">
         <v>90.8</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>São Sebastião do Alto</t>
-        </is>
+    <row r="85" spans="1:14">
+      <c r="A85" t="s">
+        <v>97</v>
       </c>
       <c r="B85">
         <v>5</v>
@@ -5030,45 +4485,34 @@
       <c r="F85">
         <v>25</v>
       </c>
-      <c r="G85">
+      <c r="G85" s="2">
         <v>100</v>
       </c>
-      <c r="H85">
+      <c r="H85" s="2">
         <v>0</v>
       </c>
       <c r="I85">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="J85">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="K85">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="L85">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="M85">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="N85">
-        <v>36</v>
-      </c>
-      <c r="O85">
-        <v>25</v>
-      </c>
-      <c r="P85">
-        <v>14</v>
-      </c>
-      <c r="Q85">
         <v>56</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>Tanguá</t>
-        </is>
+    <row r="86" spans="1:14">
+      <c r="A86" t="s">
+        <v>98</v>
       </c>
       <c r="B86">
         <v>4</v>
@@ -5085,45 +4529,34 @@
       <c r="F86">
         <v>31</v>
       </c>
-      <c r="G86">
-        <v>83.87096774193549</v>
-      </c>
-      <c r="H86">
+      <c r="G86" s="2">
+        <v>83.870967741935488</v>
+      </c>
+      <c r="H86" s="2">
         <v>19.23076923076923</v>
       </c>
       <c r="I86">
         <v>22</v>
       </c>
       <c r="J86">
+        <v>100</v>
+      </c>
+      <c r="K86">
         <v>22</v>
       </c>
-      <c r="K86">
-        <v>100</v>
-      </c>
       <c r="L86">
-        <v>31</v>
+        <v>70.97</v>
       </c>
       <c r="M86">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="N86">
-        <v>70.97</v>
-      </c>
-      <c r="O86">
-        <v>31</v>
-      </c>
-      <c r="P86">
-        <v>27</v>
-      </c>
-      <c r="Q86">
-        <v>87.09999999999999</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>Teresópolis</t>
-        </is>
+        <v>87.1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14">
+      <c r="A87" t="s">
+        <v>99</v>
       </c>
       <c r="B87">
         <v>11</v>
@@ -5140,45 +4573,34 @@
       <c r="F87">
         <v>168</v>
       </c>
-      <c r="G87">
-        <v>66.07142857142857</v>
-      </c>
-      <c r="H87">
-        <v>51.35135135135135</v>
+      <c r="G87" s="2">
+        <v>66.071428571428569</v>
+      </c>
+      <c r="H87" s="2">
+        <v>51.351351351351347</v>
       </c>
       <c r="I87">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="J87">
         <v>92</v>
       </c>
       <c r="K87">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="L87">
-        <v>168</v>
+        <v>69.05</v>
       </c>
       <c r="M87">
-        <v>116</v>
+        <v>153</v>
       </c>
       <c r="N87">
-        <v>69.05</v>
-      </c>
-      <c r="O87">
-        <v>168</v>
-      </c>
-      <c r="P87">
-        <v>153</v>
-      </c>
-      <c r="Q87">
-        <v>91.06999999999999</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>Trajano de Moraes</t>
-        </is>
+        <v>91.07</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14">
+      <c r="A88" t="s">
+        <v>100</v>
       </c>
       <c r="B88">
         <v>12</v>
@@ -5195,45 +4617,34 @@
       <c r="F88">
         <v>31</v>
       </c>
-      <c r="G88">
+      <c r="G88" s="2">
         <v>100</v>
       </c>
-      <c r="H88">
+      <c r="H88" s="2">
         <v>0</v>
       </c>
       <c r="I88">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="J88">
-        <v>15</v>
+        <v>78.95</v>
       </c>
       <c r="K88">
-        <v>78.95</v>
+        <v>17</v>
       </c>
       <c r="L88">
-        <v>31</v>
+        <v>54.84</v>
       </c>
       <c r="M88">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="N88">
-        <v>54.84</v>
-      </c>
-      <c r="O88">
-        <v>31</v>
-      </c>
-      <c r="P88">
-        <v>20</v>
-      </c>
-      <c r="Q88">
         <v>64.52</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>Três Rios</t>
-        </is>
+    <row r="89" spans="1:14">
+      <c r="A89" t="s">
+        <v>101</v>
       </c>
       <c r="B89">
         <v>12</v>
@@ -5250,45 +4661,34 @@
       <c r="F89">
         <v>70</v>
       </c>
-      <c r="G89">
+      <c r="G89" s="2">
         <v>70</v>
       </c>
-      <c r="H89">
-        <v>42.85714285714285</v>
+      <c r="H89" s="2">
+        <v>42.857142857142847</v>
       </c>
       <c r="I89">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J89">
-        <v>36</v>
+        <v>97.3</v>
       </c>
       <c r="K89">
-        <v>97.3</v>
+        <v>63</v>
       </c>
       <c r="L89">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="M89">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="N89">
-        <v>90</v>
-      </c>
-      <c r="O89">
-        <v>70</v>
-      </c>
-      <c r="P89">
-        <v>68</v>
-      </c>
-      <c r="Q89">
         <v>97.14</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>Valença</t>
-        </is>
+    <row r="90" spans="1:14">
+      <c r="A90" t="s">
+        <v>102</v>
       </c>
       <c r="B90">
         <v>12</v>
@@ -5305,45 +4705,34 @@
       <c r="F90">
         <v>118</v>
       </c>
-      <c r="G90">
-        <v>85.59322033898306</v>
-      </c>
-      <c r="H90">
-        <v>16.83168316831683</v>
+      <c r="G90" s="2">
+        <v>85.593220338983059</v>
+      </c>
+      <c r="H90" s="2">
+        <v>16.831683168316829</v>
       </c>
       <c r="I90">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="J90">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="K90">
         <v>50</v>
       </c>
       <c r="L90">
-        <v>118</v>
+        <v>42.37</v>
       </c>
       <c r="M90">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="N90">
-        <v>42.37</v>
-      </c>
-      <c r="O90">
-        <v>118</v>
-      </c>
-      <c r="P90">
-        <v>72</v>
-      </c>
-      <c r="Q90">
         <v>61.02</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>Varre-Sai</t>
-        </is>
+    <row r="91" spans="1:14">
+      <c r="A91" t="s">
+        <v>103</v>
       </c>
       <c r="B91">
         <v>1</v>
@@ -5360,45 +4749,34 @@
       <c r="F91">
         <v>34</v>
       </c>
-      <c r="G91">
-        <v>94.11764705882352</v>
-      </c>
-      <c r="H91">
+      <c r="G91" s="2">
+        <v>94.117647058823522</v>
+      </c>
+      <c r="H91" s="2">
         <v>6.25</v>
       </c>
       <c r="I91">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="J91">
-        <v>3</v>
+        <v>9.68</v>
       </c>
       <c r="K91">
-        <v>9.68</v>
+        <v>9</v>
       </c>
       <c r="L91">
-        <v>34</v>
+        <v>26.47</v>
       </c>
       <c r="M91">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="N91">
-        <v>26.47</v>
-      </c>
-      <c r="O91">
-        <v>34</v>
-      </c>
-      <c r="P91">
-        <v>15</v>
-      </c>
-      <c r="Q91">
         <v>44.12</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>Vassouras</t>
-        </is>
+    <row r="92" spans="1:14">
+      <c r="A92" t="s">
+        <v>104</v>
       </c>
       <c r="B92">
         <v>6</v>
@@ -5415,45 +4793,34 @@
       <c r="F92">
         <v>60</v>
       </c>
-      <c r="G92">
-        <v>83.33333333333334</v>
-      </c>
-      <c r="H92">
+      <c r="G92" s="2">
+        <v>83.333333333333343</v>
+      </c>
+      <c r="H92" s="2">
         <v>20</v>
       </c>
       <c r="I92">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="J92">
-        <v>20</v>
+        <v>45.45</v>
       </c>
       <c r="K92">
-        <v>45.45</v>
+        <v>31</v>
       </c>
       <c r="L92">
-        <v>60</v>
+        <v>51.67</v>
       </c>
       <c r="M92">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N92">
-        <v>51.67</v>
-      </c>
-      <c r="O92">
-        <v>60</v>
-      </c>
-      <c r="P92">
-        <v>33</v>
-      </c>
-      <c r="Q92">
         <v>55</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>Volta Redonda</t>
-        </is>
+    <row r="93" spans="1:14">
+      <c r="A93" t="s">
+        <v>105</v>
       </c>
       <c r="B93">
         <v>31</v>
@@ -5470,38 +4837,208 @@
       <c r="F93">
         <v>191</v>
       </c>
-      <c r="G93">
-        <v>69.63350785340315</v>
-      </c>
-      <c r="H93">
-        <v>43.60902255639098</v>
+      <c r="G93" s="2">
+        <v>69.633507853403145</v>
+      </c>
+      <c r="H93" s="2">
+        <v>43.609022556390983</v>
       </c>
       <c r="I93">
         <v>101</v>
       </c>
       <c r="J93">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K93">
-        <v>100</v>
+        <v>177</v>
       </c>
       <c r="L93">
-        <v>191</v>
+        <v>92.67</v>
       </c>
       <c r="M93">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="N93">
-        <v>92.67</v>
-      </c>
-      <c r="O93">
-        <v>191</v>
-      </c>
-      <c r="P93">
-        <v>188</v>
-      </c>
-      <c r="Q93">
-        <v>98.43000000000001</v>
+        <v>98.43</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14">
+      <c r="H94" s="2"/>
+    </row>
+    <row r="95" spans="1:14">
+      <c r="H95" s="2"/>
+    </row>
+    <row r="96" spans="1:14">
+      <c r="H96" s="2"/>
+    </row>
+    <row r="97" spans="8:8">
+      <c r="H97" s="2"/>
+    </row>
+    <row r="98" spans="8:8">
+      <c r="H98" s="2"/>
+    </row>
+    <row r="99" spans="8:8">
+      <c r="H99" s="2"/>
+    </row>
+    <row r="100" spans="8:8">
+      <c r="H100" s="2"/>
+    </row>
+    <row r="101" spans="8:8">
+      <c r="H101" s="2"/>
+    </row>
+    <row r="102" spans="8:8">
+      <c r="H102" s="2"/>
+    </row>
+    <row r="103" spans="8:8">
+      <c r="H103" s="2"/>
+    </row>
+    <row r="104" spans="8:8">
+      <c r="H104" s="2"/>
+    </row>
+    <row r="105" spans="8:8">
+      <c r="H105" s="2"/>
+    </row>
+    <row r="106" spans="8:8">
+      <c r="H106" s="2"/>
+    </row>
+    <row r="107" spans="8:8">
+      <c r="H107" s="2"/>
+    </row>
+    <row r="108" spans="8:8">
+      <c r="H108" s="2"/>
+    </row>
+    <row r="109" spans="8:8">
+      <c r="H109" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C795416F-1F7E-478B-8467-E0DB53CE5274}">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="30.75">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
